--- a/bak/ml.xlsx
+++ b/bak/ml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1234"/>
+  <dimension ref="A1:K1255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43584,22 +43584,22 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t xml:space="preserve">Portland Timbers II </t>
+          <t xml:space="preserve">Speranza Osaka-Takatsuki </t>
         </is>
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tacoma Defiance</t>
+          <t xml:space="preserve"> Iga FC Kunoichi</t>
         </is>
       </c>
       <c r="C1053" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D1053" t="n">
-        <v>2.1</v>
+        <v>1.74</v>
       </c>
       <c r="E1053" t="n">
-        <v>0.7999999999999998</v>
+        <v>2.359999999999999</v>
       </c>
       <c r="F1053" t="n">
         <v>1</v>
@@ -43608,48 +43608,48 @@
         <v>0</v>
       </c>
       <c r="H1053" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1053" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1053" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stop Out SC </t>
+          <t xml:space="preserve">Lambton Jaffas FC </t>
         </is>
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wellington Phoenix FC</t>
+          <t xml:space="preserve"> Adamstown Rosebud FC</t>
         </is>
       </c>
       <c r="C1054" t="n">
-        <v>4.3</v>
+        <v>1.06</v>
       </c>
       <c r="D1054" t="n">
-        <v>1.54</v>
+        <v>19.5</v>
       </c>
       <c r="E1054" t="n">
-        <v>2.76</v>
+        <v>18.44</v>
       </c>
       <c r="F1054" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1054" t="n">
         <v>1</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1054" t="n">
         <v>0</v>
@@ -43659,29 +43659,29 @@
       </c>
       <c r="K1054" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t xml:space="preserve">Waterside Karori </t>
+          <t xml:space="preserve">Shimizu S-Pulse </t>
         </is>
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Island Bay United</t>
+          <t xml:space="preserve"> Kagoshima United</t>
         </is>
       </c>
       <c r="C1055" t="n">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="D1055" t="n">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="E1055" t="n">
-        <v>4.36</v>
+        <v>4.85</v>
       </c>
       <c r="F1055" t="n">
         <v>1</v>
@@ -43693,36 +43693,36 @@
         <v>0</v>
       </c>
       <c r="I1055" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1055" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1055" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t xml:space="preserve">Speranza Osaka-Takatsuki </t>
+          <t xml:space="preserve">Vegalta Sendai </t>
         </is>
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Iga FC Kunoichi</t>
+          <t xml:space="preserve"> Thespakusatsu</t>
         </is>
       </c>
       <c r="C1056" t="n">
-        <v>4.1</v>
+        <v>1.59</v>
       </c>
       <c r="D1056" t="n">
-        <v>1.74</v>
+        <v>5.9</v>
       </c>
       <c r="E1056" t="n">
-        <v>2.359999999999999</v>
+        <v>4.31</v>
       </c>
       <c r="F1056" t="n">
         <v>1</v>
@@ -43731,39 +43731,39 @@
         <v>0</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1056" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1056" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1056" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t xml:space="preserve">Edgeworth FC </t>
+          <t xml:space="preserve">Avondale FC </t>
         </is>
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maitland FC</t>
+          <t xml:space="preserve"> Port Melbourne Sharks</t>
         </is>
       </c>
       <c r="C1057" t="n">
-        <v>2.25</v>
+        <v>1.49</v>
       </c>
       <c r="D1057" t="n">
-        <v>2.55</v>
+        <v>4.8</v>
       </c>
       <c r="E1057" t="n">
-        <v>0.2999999999999998</v>
+        <v>3.31</v>
       </c>
       <c r="F1057" t="n">
         <v>0</v>
@@ -43775,80 +43775,80 @@
         <v>1</v>
       </c>
       <c r="I1057" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1057" t="n">
         <v>0</v>
       </c>
       <c r="K1057" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lambton Jaffas FC </t>
+          <t xml:space="preserve">Canberra Olympic </t>
         </is>
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adamstown Rosebud FC</t>
+          <t xml:space="preserve"> Canberra Croatia FC</t>
         </is>
       </c>
       <c r="C1058" t="n">
-        <v>1.06</v>
+        <v>3.8</v>
       </c>
       <c r="D1058" t="n">
-        <v>19.5</v>
+        <v>1.67</v>
       </c>
       <c r="E1058" t="n">
-        <v>18.44</v>
+        <v>2.13</v>
       </c>
       <c r="F1058" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1058" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1058" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="n">
         <v>0</v>
       </c>
       <c r="J1058" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1058" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t xml:space="preserve">Devonport City SC </t>
+          <t xml:space="preserve">Chuncheon FC </t>
         </is>
       </c>
       <c r="B1059" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Glenorchy Knights FC</t>
+          <t xml:space="preserve"> Gyeongju FC</t>
         </is>
       </c>
       <c r="C1059" t="n">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="D1059" t="n">
-        <v>2.75</v>
+        <v>1.97</v>
       </c>
       <c r="E1059" t="n">
-        <v>0.5</v>
+        <v>1.83</v>
       </c>
       <c r="F1059" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1059" t="n">
         <v>1</v>
@@ -43857,39 +43857,39 @@
         <v>0</v>
       </c>
       <c r="I1059" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1059" t="n">
         <v>0</v>
       </c>
       <c r="K1059" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jubilo Iwata </t>
+          <t xml:space="preserve">Orca Kamogawa FC </t>
         </is>
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sagan Tosu</t>
+          <t xml:space="preserve"> Nippatsu Yokohama FC Seagulls</t>
         </is>
       </c>
       <c r="C1060" t="n">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="D1060" t="n">
-        <v>3.88</v>
+        <v>2.65</v>
       </c>
       <c r="E1060" t="n">
-        <v>1.9</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="F1060" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1060" t="n">
         <v>1</v>
@@ -43905,29 +43905,29 @@
       </c>
       <c r="K1060" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kyoto Sanga FC </t>
+          <t xml:space="preserve">Yoogali SC </t>
         </is>
       </c>
       <c r="B1061" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Avispa Fukuoka</t>
+          <t xml:space="preserve"> Cooma Tigers</t>
         </is>
       </c>
       <c r="C1061" t="n">
-        <v>2.97</v>
+        <v>10.5</v>
       </c>
       <c r="D1061" t="n">
-        <v>2.71</v>
+        <v>1.14</v>
       </c>
       <c r="E1061" t="n">
-        <v>0.2600000000000002</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="F1061" t="n">
         <v>1</v>
@@ -43946,35 +43946,35 @@
       </c>
       <c r="K1061" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t xml:space="preserve">Niigata Albirex </t>
+          <t xml:space="preserve">Adelaide Comets FC </t>
         </is>
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Urawa Red Diamonds</t>
+          <t xml:space="preserve"> Croydon Kings FC</t>
         </is>
       </c>
       <c r="C1062" t="n">
-        <v>3.5</v>
+        <v>1.35</v>
       </c>
       <c r="D1062" t="n">
-        <v>2.27</v>
+        <v>6.9</v>
       </c>
       <c r="E1062" t="n">
-        <v>1.23</v>
+        <v>5.550000000000001</v>
       </c>
       <c r="F1062" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1062" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1062" t="n">
         <v>0</v>
@@ -43987,35 +43987,35 @@
       </c>
       <c r="K1062" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shimizu S-Pulse </t>
+          <t xml:space="preserve">Adelaide Croatia Raiders SC </t>
         </is>
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagoshima United</t>
+          <t xml:space="preserve"> Modbury Jets SC</t>
         </is>
       </c>
       <c r="C1063" t="n">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="D1063" t="n">
-        <v>6.3</v>
+        <v>1.99</v>
       </c>
       <c r="E1063" t="n">
-        <v>4.85</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="F1063" t="n">
         <v>1</v>
       </c>
       <c r="G1063" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1063" t="n">
         <v>0</v>
@@ -44024,83 +44024,83 @@
         <v>1</v>
       </c>
       <c r="J1063" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1063" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vegalta Sendai </t>
+          <t xml:space="preserve">Campbelltown City SC </t>
         </is>
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thespakusatsu</t>
+          <t xml:space="preserve"> Para Hills Knights SC</t>
         </is>
       </c>
       <c r="C1064" t="n">
-        <v>1.59</v>
+        <v>1.34</v>
       </c>
       <c r="D1064" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="E1064" t="n">
-        <v>4.31</v>
+        <v>4.86</v>
       </c>
       <c r="F1064" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1064" t="n">
         <v>0</v>
       </c>
       <c r="H1064" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1064" t="n">
         <v>1</v>
       </c>
       <c r="K1064" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avondale FC </t>
+          <t xml:space="preserve">Kawasaki Frontale </t>
         </is>
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Port Melbourne Sharks</t>
+          <t xml:space="preserve"> Hokkaido Consadole Sapporo</t>
         </is>
       </c>
       <c r="C1065" t="n">
-        <v>1.49</v>
+        <v>1.85</v>
       </c>
       <c r="D1065" t="n">
-        <v>4.8</v>
+        <v>4.16</v>
       </c>
       <c r="E1065" t="n">
-        <v>3.31</v>
+        <v>2.31</v>
       </c>
       <c r="F1065" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1065" t="n">
         <v>1</v>
       </c>
       <c r="H1065" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="n">
         <v>1</v>
@@ -44110,70 +44110,70 @@
       </c>
       <c r="K1065" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t xml:space="preserve">Canberra Olympic </t>
+          <t xml:space="preserve">Shonan Bellmare </t>
         </is>
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canberra Croatia FC</t>
+          <t xml:space="preserve"> Machida Zelvia</t>
         </is>
       </c>
       <c r="C1066" t="n">
-        <v>3.8</v>
+        <v>3.51</v>
       </c>
       <c r="D1066" t="n">
-        <v>1.67</v>
+        <v>2.23</v>
       </c>
       <c r="E1066" t="n">
-        <v>2.13</v>
+        <v>1.28</v>
       </c>
       <c r="F1066" t="n">
         <v>1</v>
       </c>
       <c r="G1066" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1066" t="n">
         <v>0</v>
       </c>
       <c r="I1066" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1066" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1066" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chuncheon FC </t>
+          <t xml:space="preserve">Riverside Olympic FC </t>
         </is>
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gyeongju FC</t>
+          <t xml:space="preserve"> Clarence Zebras FC</t>
         </is>
       </c>
       <c r="C1067" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D1067" t="n">
-        <v>1.97</v>
+        <v>1.69</v>
       </c>
       <c r="E1067" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="F1067" t="n">
         <v>1</v>
@@ -44185,39 +44185,39 @@
         <v>0</v>
       </c>
       <c r="I1067" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1067" t="n">
         <v>0</v>
       </c>
       <c r="K1067" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siheung Citizen FC </t>
+          <t xml:space="preserve">Launceston City FC </t>
         </is>
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gangneung Citizen FC</t>
+          <t xml:space="preserve"> South Hobart FC</t>
         </is>
       </c>
       <c r="C1068" t="n">
-        <v>1.99</v>
+        <v>6</v>
       </c>
       <c r="D1068" t="n">
-        <v>3.7</v>
+        <v>1.36</v>
       </c>
       <c r="E1068" t="n">
-        <v>1.71</v>
+        <v>4.64</v>
       </c>
       <c r="F1068" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1068" t="n">
         <v>1</v>
@@ -44226,36 +44226,36 @@
         <v>0</v>
       </c>
       <c r="I1068" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1068" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1068" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eastern Lions SC </t>
+          <t xml:space="preserve">Gold Coast Knights </t>
         </is>
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Werribee City FC</t>
+          <t xml:space="preserve"> Redlands United FC</t>
         </is>
       </c>
       <c r="C1069" t="n">
-        <v>1.59</v>
+        <v>1.14</v>
       </c>
       <c r="D1069" t="n">
-        <v>4.4</v>
+        <v>13</v>
       </c>
       <c r="E1069" t="n">
-        <v>2.81</v>
+        <v>11.86</v>
       </c>
       <c r="F1069" t="n">
         <v>1</v>
@@ -44264,7 +44264,7 @@
         <v>0</v>
       </c>
       <c r="H1069" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1069" t="n">
         <v>1</v>
@@ -44274,35 +44274,35 @@
       </c>
       <c r="K1069" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t xml:space="preserve">North Geelong Warriors FC </t>
+          <t xml:space="preserve">Peninsula Power FC </t>
         </is>
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Melbourne City FC</t>
+          <t xml:space="preserve"> Moreton City Excelsior FC</t>
         </is>
       </c>
       <c r="C1070" t="n">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="D1070" t="n">
-        <v>1.86</v>
+        <v>2.5</v>
       </c>
       <c r="E1070" t="n">
-        <v>1.64</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="F1070" t="n">
         <v>1</v>
       </c>
       <c r="G1070" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1070" t="n">
         <v>1</v>
@@ -44315,29 +44315,29 @@
       </c>
       <c r="K1070" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t xml:space="preserve">Orca Kamogawa FC </t>
+          <t xml:space="preserve">Dalian Kun City </t>
         </is>
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nippatsu Yokohama FC Seagulls</t>
+          <t xml:space="preserve"> Taian Tiankuang</t>
         </is>
       </c>
       <c r="C1071" t="n">
-        <v>2.3</v>
+        <v>1.46</v>
       </c>
       <c r="D1071" t="n">
-        <v>2.65</v>
+        <v>6.7</v>
       </c>
       <c r="E1071" t="n">
-        <v>0.3500000000000001</v>
+        <v>5.24</v>
       </c>
       <c r="F1071" t="n">
         <v>1</v>
@@ -44356,35 +44356,35 @@
       </c>
       <c r="K1071" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alamein FC </t>
+          <t xml:space="preserve">Lee Man FC </t>
         </is>
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Preston Lions</t>
+          <t xml:space="preserve"> Sham Shui Po SA</t>
         </is>
       </c>
       <c r="C1072" t="n">
-        <v>3.8</v>
+        <v>1.02</v>
       </c>
       <c r="D1072" t="n">
-        <v>1.7</v>
+        <v>22</v>
       </c>
       <c r="E1072" t="n">
-        <v>2.1</v>
+        <v>20.98</v>
       </c>
       <c r="F1072" t="n">
         <v>1</v>
       </c>
       <c r="G1072" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1072" t="n">
         <v>0</v>
@@ -44397,29 +44397,29 @@
       </c>
       <c r="K1072" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t xml:space="preserve">Essendon Royals SC </t>
+          <t xml:space="preserve">Incheon United FC </t>
         </is>
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brunswick Juventus FC</t>
+          <t xml:space="preserve"> FC Seoul</t>
         </is>
       </c>
       <c r="C1073" t="n">
-        <v>1.71</v>
+        <v>2.3</v>
       </c>
       <c r="D1073" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="E1073" t="n">
-        <v>2.04</v>
+        <v>1</v>
       </c>
       <c r="F1073" t="n">
         <v>1</v>
@@ -44428,39 +44428,39 @@
         <v>0</v>
       </c>
       <c r="H1073" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1073" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1073" t="n">
         <v>1</v>
       </c>
       <c r="K1073" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Bulleen Lions </t>
+          <t xml:space="preserve">White City FK Beograd </t>
         </is>
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bentleigh Greens SC</t>
+          <t xml:space="preserve"> Adelaide United FC</t>
         </is>
       </c>
       <c r="C1074" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="D1074" t="n">
-        <v>24</v>
+        <v>2.1</v>
       </c>
       <c r="E1074" t="n">
-        <v>22.96</v>
+        <v>0.6999999999999997</v>
       </c>
       <c r="F1074" t="n">
         <v>0</v>
@@ -44472,36 +44472,36 @@
         <v>0</v>
       </c>
       <c r="I1074" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1074" t="n">
         <v>1</v>
       </c>
       <c r="K1074" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yoogali SC </t>
+          <t xml:space="preserve">Jiangxi Beidamen </t>
         </is>
       </c>
       <c r="B1075" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cooma Tigers</t>
+          <t xml:space="preserve"> Dalian Zhixing FC</t>
         </is>
       </c>
       <c r="C1075" t="n">
-        <v>10.5</v>
+        <v>3.8</v>
       </c>
       <c r="D1075" t="n">
-        <v>1.14</v>
+        <v>1.85</v>
       </c>
       <c r="E1075" t="n">
-        <v>9.359999999999999</v>
+        <v>1.95</v>
       </c>
       <c r="F1075" t="n">
         <v>1</v>
@@ -44520,35 +44520,35 @@
       </c>
       <c r="K1075" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelaide Comets FC </t>
+          <t xml:space="preserve">Monaro Panthers FC </t>
         </is>
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Croydon Kings FC</t>
+          <t xml:space="preserve"> Tuggeranong Utd</t>
         </is>
       </c>
       <c r="C1076" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="D1076" t="n">
-        <v>6.9</v>
+        <v>7.6</v>
       </c>
       <c r="E1076" t="n">
-        <v>5.550000000000001</v>
+        <v>6.34</v>
       </c>
       <c r="F1076" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1076" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1076" t="n">
         <v>0</v>
@@ -44561,35 +44561,35 @@
       </c>
       <c r="K1076" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelaide Croatia Raiders SC </t>
+          <t xml:space="preserve">Ipswich FC </t>
         </is>
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Modbury Jets SC</t>
+          <t xml:space="preserve"> Broadbeach United</t>
         </is>
       </c>
       <c r="C1077" t="n">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="D1077" t="n">
-        <v>1.99</v>
+        <v>1.31</v>
       </c>
       <c r="E1077" t="n">
-        <v>0.9099999999999999</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="F1077" t="n">
         <v>1</v>
       </c>
       <c r="G1077" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1077" t="n">
         <v>0</v>
@@ -44598,36 +44598,36 @@
         <v>1</v>
       </c>
       <c r="J1077" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1077" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t xml:space="preserve">Campbelltown City SC </t>
+          <t xml:space="preserve">Mitchelton FC </t>
         </is>
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Para Hills Knights SC</t>
+          <t xml:space="preserve"> Southside Eagles</t>
         </is>
       </c>
       <c r="C1078" t="n">
-        <v>1.34</v>
+        <v>5.1</v>
       </c>
       <c r="D1078" t="n">
-        <v>6.2</v>
+        <v>1.47</v>
       </c>
       <c r="E1078" t="n">
-        <v>4.86</v>
+        <v>3.63</v>
       </c>
       <c r="F1078" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1078" t="n">
         <v>0</v>
@@ -44639,42 +44639,42 @@
         <v>1</v>
       </c>
       <c r="J1078" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1078" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kawasaki Frontale </t>
+          <t xml:space="preserve">AFC Chindia Targoviste </t>
         </is>
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hokkaido Consadole Sapporo</t>
+          <t xml:space="preserve"> CSM Slatina</t>
         </is>
       </c>
       <c r="C1079" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="D1079" t="n">
-        <v>4.16</v>
+        <v>4.2</v>
       </c>
       <c r="E1079" t="n">
-        <v>2.31</v>
+        <v>2.45</v>
       </c>
       <c r="F1079" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1079" t="n">
         <v>1</v>
       </c>
       <c r="H1079" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1079" t="n">
         <v>1</v>
@@ -44684,29 +44684,29 @@
       </c>
       <c r="K1079" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shonan Bellmare </t>
+          <t xml:space="preserve">Csa Steaua Bucuresti </t>
         </is>
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Machida Zelvia</t>
+          <t xml:space="preserve"> CS Concordia Chiajna</t>
         </is>
       </c>
       <c r="C1080" t="n">
-        <v>3.51</v>
+        <v>2.1</v>
       </c>
       <c r="D1080" t="n">
-        <v>2.23</v>
+        <v>3.1</v>
       </c>
       <c r="E1080" t="n">
-        <v>1.28</v>
+        <v>1</v>
       </c>
       <c r="F1080" t="n">
         <v>1</v>
@@ -44715,39 +44715,39 @@
         <v>1</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1080" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1080" t="n">
         <v>0</v>
       </c>
       <c r="K1080" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lake Macquarie FC </t>
+          <t xml:space="preserve">FC Unirea Dej </t>
         </is>
       </c>
       <c r="B1081" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Newcastle Olympic FC</t>
+          <t xml:space="preserve"> CSM Alexandria</t>
         </is>
       </c>
       <c r="C1081" t="n">
-        <v>10.5</v>
+        <v>1.26</v>
       </c>
       <c r="D1081" t="n">
-        <v>1.16</v>
+        <v>7.8</v>
       </c>
       <c r="E1081" t="n">
-        <v>9.34</v>
+        <v>6.54</v>
       </c>
       <c r="F1081" t="n">
         <v>1</v>
@@ -44762,33 +44762,33 @@
         <v>0</v>
       </c>
       <c r="J1081" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1081" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t xml:space="preserve">South Melbourne FC </t>
+          <t xml:space="preserve">Wolves FC </t>
         </is>
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Calder United SC</t>
+          <t xml:space="preserve"> Queensland Lions FC</t>
         </is>
       </c>
       <c r="C1082" t="n">
-        <v>1.47</v>
+        <v>7.1</v>
       </c>
       <c r="D1082" t="n">
-        <v>5</v>
+        <v>1.31</v>
       </c>
       <c r="E1082" t="n">
-        <v>3.53</v>
+        <v>5.789999999999999</v>
       </c>
       <c r="F1082" t="n">
         <v>1</v>
@@ -44803,39 +44803,39 @@
         <v>0</v>
       </c>
       <c r="J1082" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1082" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t xml:space="preserve">Riverside Olympic FC </t>
+          <t xml:space="preserve">FK Jablonec B </t>
         </is>
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Clarence Zebras FC</t>
+          <t xml:space="preserve"> FK Arsenal Ceska Lipa</t>
         </is>
       </c>
       <c r="C1083" t="n">
-        <v>3.6</v>
+        <v>1.76</v>
       </c>
       <c r="D1083" t="n">
-        <v>1.69</v>
+        <v>3.5</v>
       </c>
       <c r="E1083" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="F1083" t="n">
         <v>1</v>
       </c>
       <c r="G1083" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1083" t="n">
         <v>0</v>
@@ -44844,156 +44844,156 @@
         <v>1</v>
       </c>
       <c r="J1083" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1083" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t xml:space="preserve">Launceston City FC </t>
+          <t xml:space="preserve">FK Fotbal Trinec </t>
         </is>
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t xml:space="preserve"> South Hobart FC</t>
+          <t xml:space="preserve"> SK Hranice</t>
         </is>
       </c>
       <c r="C1084" t="n">
-        <v>6</v>
+        <v>1.16</v>
       </c>
       <c r="D1084" t="n">
-        <v>1.36</v>
+        <v>11</v>
       </c>
       <c r="E1084" t="n">
-        <v>4.64</v>
+        <v>9.84</v>
       </c>
       <c r="F1084" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1084" t="n">
         <v>1</v>
       </c>
       <c r="H1084" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1084" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1084" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1084" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cerezo Osaka </t>
+          <t xml:space="preserve">ZCE Plzen </t>
         </is>
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vissel Kobe</t>
+          <t xml:space="preserve"> FK Horovicko</t>
         </is>
       </c>
       <c r="C1085" t="n">
-        <v>3.13</v>
+        <v>1.24</v>
       </c>
       <c r="D1085" t="n">
-        <v>2.45</v>
+        <v>7.7</v>
       </c>
       <c r="E1085" t="n">
-        <v>0.6799999999999997</v>
+        <v>6.46</v>
       </c>
       <c r="F1085" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1085" t="n">
         <v>0</v>
       </c>
       <c r="H1085" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1085" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1085" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1085" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nagoya Grampus </t>
+          <t xml:space="preserve">N. Byskovice </t>
         </is>
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gamba Osaka</t>
+          <t xml:space="preserve"> Cesky Brod</t>
         </is>
       </c>
       <c r="C1086" t="n">
-        <v>2.52</v>
+        <v>1.52</v>
       </c>
       <c r="D1086" t="n">
-        <v>3.24</v>
+        <v>4.4</v>
       </c>
       <c r="E1086" t="n">
-        <v>0.7200000000000002</v>
+        <v>2.88</v>
       </c>
       <c r="F1086" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1086" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1086" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1086" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1086" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1086" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t xml:space="preserve">Central Coast Mariners Academy </t>
+          <t xml:space="preserve">SK Kladno </t>
         </is>
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t xml:space="preserve"> St George Saints FC</t>
+          <t xml:space="preserve"> FK Ostrov</t>
         </is>
       </c>
       <c r="C1087" t="n">
-        <v>2.4</v>
+        <v>1.17</v>
       </c>
       <c r="D1087" t="n">
-        <v>2.45</v>
+        <v>8.9</v>
       </c>
       <c r="E1087" t="n">
-        <v>0.05000000000000027</v>
+        <v>7.73</v>
       </c>
       <c r="F1087" t="n">
         <v>1</v>
@@ -45012,29 +45012,29 @@
       </c>
       <c r="K1087" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gold Coast Knights </t>
+          <t xml:space="preserve">Cagliari Calcio </t>
         </is>
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Redlands United FC</t>
+          <t xml:space="preserve"> Genoa CFC</t>
         </is>
       </c>
       <c r="C1088" t="n">
-        <v>1.14</v>
+        <v>1.98</v>
       </c>
       <c r="D1088" t="n">
-        <v>13</v>
+        <v>3.1</v>
       </c>
       <c r="E1088" t="n">
-        <v>11.86</v>
+        <v>1.12</v>
       </c>
       <c r="F1088" t="n">
         <v>1</v>
@@ -45043,39 +45043,39 @@
         <v>0</v>
       </c>
       <c r="H1088" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1088" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1088" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1088" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peninsula Power FC </t>
+          <t xml:space="preserve">Moreton City Excelsior FC 2 </t>
         </is>
       </c>
       <c r="B1089" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Moreton City Excelsior FC</t>
+          <t xml:space="preserve"> Logan Lightning</t>
         </is>
       </c>
       <c r="C1089" t="n">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="D1089" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="E1089" t="n">
-        <v>0.1499999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="F1089" t="n">
         <v>1</v>
@@ -45084,39 +45084,39 @@
         <v>1</v>
       </c>
       <c r="H1089" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1089" t="n">
         <v>0</v>
       </c>
       <c r="J1089" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dalian Kun City </t>
+          <t xml:space="preserve">St George City FA </t>
         </is>
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taian Tiankuang</t>
+          <t xml:space="preserve"> Sutherland Sharks</t>
         </is>
       </c>
       <c r="C1090" t="n">
         <v>1.46</v>
       </c>
       <c r="D1090" t="n">
-        <v>6.7</v>
+        <v>5.3</v>
       </c>
       <c r="E1090" t="n">
-        <v>5.24</v>
+        <v>3.84</v>
       </c>
       <c r="F1090" t="n">
         <v>1</v>
@@ -45128,42 +45128,42 @@
         <v>0</v>
       </c>
       <c r="I1090" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1090" t="n">
         <v>0</v>
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lee Man FC </t>
+          <t xml:space="preserve">Paide Linnameeskond U21 </t>
         </is>
       </c>
       <c r="B1091" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sham Shui Po SA</t>
+          <t xml:space="preserve"> JK Tabasalu</t>
         </is>
       </c>
       <c r="C1091" t="n">
-        <v>1.02</v>
+        <v>3.3</v>
       </c>
       <c r="D1091" t="n">
-        <v>22</v>
+        <v>1.77</v>
       </c>
       <c r="E1091" t="n">
-        <v>20.98</v>
+        <v>1.53</v>
       </c>
       <c r="F1091" t="n">
         <v>1</v>
       </c>
       <c r="G1091" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1091" t="n">
         <v>0</v>
@@ -45172,33 +45172,33 @@
         <v>0</v>
       </c>
       <c r="J1091" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t xml:space="preserve">Incheon United FC </t>
+          <t xml:space="preserve">Gangwon FC </t>
         </is>
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Seoul</t>
+          <t xml:space="preserve"> Daejeon Citizen FC</t>
         </is>
       </c>
       <c r="C1092" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="D1092" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="E1092" t="n">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="F1092" t="n">
         <v>1</v>
@@ -45207,42 +45207,42 @@
         <v>0</v>
       </c>
       <c r="H1092" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1092" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1092" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1092" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t xml:space="preserve">Busan I Park </t>
+          <t xml:space="preserve">FC Vorskla Poltava </t>
         </is>
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chungnam Asan FC</t>
+          <t xml:space="preserve"> FC Minaj</t>
         </is>
       </c>
       <c r="C1093" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="D1093" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="E1093" t="n">
-        <v>2.11</v>
+        <v>2.55</v>
       </c>
       <c r="F1093" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1093" t="n">
         <v>1</v>
@@ -45254,33 +45254,33 @@
         <v>0</v>
       </c>
       <c r="J1093" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1093" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t xml:space="preserve">NWS Spirit </t>
+          <t xml:space="preserve">Ansan Greeners </t>
         </is>
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wollongong Wolves FC</t>
+          <t xml:space="preserve"> Seoul E-Land FC</t>
         </is>
       </c>
       <c r="C1094" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="D1094" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="E1094" t="n">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="F1094" t="n">
         <v>1</v>
@@ -45295,36 +45295,36 @@
         <v>0</v>
       </c>
       <c r="J1094" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1094" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t xml:space="preserve">White City FK Beograd </t>
+          <t xml:space="preserve">Suwon Bluewings </t>
         </is>
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adelaide United FC</t>
+          <t xml:space="preserve"> Cheonan City FC</t>
         </is>
       </c>
       <c r="C1095" t="n">
-        <v>2.8</v>
+        <v>1.53</v>
       </c>
       <c r="D1095" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="E1095" t="n">
-        <v>0.6999999999999997</v>
+        <v>3.67</v>
       </c>
       <c r="F1095" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1095" t="n">
         <v>1</v>
@@ -45333,42 +45333,42 @@
         <v>0</v>
       </c>
       <c r="I1095" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1095" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1095" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jiangxi Beidamen </t>
+          <t xml:space="preserve">Schalke </t>
         </is>
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalian Zhixing FC</t>
+          <t xml:space="preserve"> Hansa Rostock</t>
         </is>
       </c>
       <c r="C1096" t="n">
-        <v>3.8</v>
+        <v>1.92</v>
       </c>
       <c r="D1096" t="n">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="E1096" t="n">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="F1096" t="n">
         <v>1</v>
       </c>
       <c r="G1096" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1096" t="n">
         <v>0</v>
@@ -45377,42 +45377,42 @@
         <v>1</v>
       </c>
       <c r="J1096" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1096" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t xml:space="preserve">Monaro Panthers FC </t>
+          <t xml:space="preserve">Tianjin Jinmen Tiger </t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tuggeranong Utd</t>
+          <t xml:space="preserve"> Shanghai Shenhua</t>
         </is>
       </c>
       <c r="C1097" t="n">
-        <v>1.26</v>
+        <v>6.67</v>
       </c>
       <c r="D1097" t="n">
-        <v>7.6</v>
+        <v>1.51</v>
       </c>
       <c r="E1097" t="n">
-        <v>6.34</v>
+        <v>5.16</v>
       </c>
       <c r="F1097" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1097" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1097" t="n">
         <v>0</v>
@@ -45422,29 +45422,29 @@
       </c>
       <c r="K1097" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Tokyo </t>
+          <t xml:space="preserve">Vejgaard BK </t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kashiwa Reysol</t>
+          <t xml:space="preserve"> Vanloese IF</t>
         </is>
       </c>
       <c r="C1098" t="n">
-        <v>2.7</v>
+        <v>1.94</v>
       </c>
       <c r="D1098" t="n">
-        <v>2.8</v>
+        <v>3.33</v>
       </c>
       <c r="E1098" t="n">
-        <v>0.09999999999999964</v>
+        <v>1.39</v>
       </c>
       <c r="F1098" t="n">
         <v>1</v>
@@ -45453,121 +45453,121 @@
         <v>0</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1098" t="n">
         <v>1</v>
       </c>
       <c r="J1098" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1098" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ipswich FC </t>
+          <t xml:space="preserve">SS Lazio </t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Broadbeach United</t>
+          <t xml:space="preserve"> Inter Milano</t>
         </is>
       </c>
       <c r="C1099" t="n">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="D1099" t="n">
-        <v>1.31</v>
+        <v>1.7</v>
       </c>
       <c r="E1099" t="n">
-        <v>5.289999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="F1099" t="n">
         <v>1</v>
       </c>
       <c r="G1099" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1099" t="n">
         <v>0</v>
       </c>
       <c r="I1099" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1099" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1099" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mitchelton FC </t>
+          <t xml:space="preserve">Fulham </t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Southside Eagles</t>
+          <t xml:space="preserve"> Man City</t>
         </is>
       </c>
       <c r="C1100" t="n">
-        <v>5.1</v>
+        <v>12.55</v>
       </c>
       <c r="D1100" t="n">
-        <v>1.47</v>
+        <v>1.24</v>
       </c>
       <c r="E1100" t="n">
-        <v>3.63</v>
+        <v>11.31</v>
       </c>
       <c r="F1100" t="n">
         <v>1</v>
       </c>
       <c r="G1100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1100" t="n">
         <v>0</v>
       </c>
       <c r="I1100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1100" t="n">
         <v>0</v>
       </c>
       <c r="K1100" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guangxi Hengchen FC </t>
+          <t xml:space="preserve">Celtic </t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shanghai Port B</t>
+          <t xml:space="preserve"> Rangers</t>
         </is>
       </c>
       <c r="C1101" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="D1101" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="E1101" t="n">
-        <v>2.44</v>
+        <v>2.29</v>
       </c>
       <c r="F1101" t="n">
         <v>1</v>
@@ -45579,77 +45579,77 @@
         <v>0</v>
       </c>
       <c r="I1101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1101" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t xml:space="preserve">AFC Chindia Targoviste </t>
+          <t xml:space="preserve">Nanjing City </t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CSM Slatina</t>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
         </is>
       </c>
       <c r="C1102" t="n">
-        <v>1.75</v>
+        <v>3.7</v>
       </c>
       <c r="D1102" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="E1102" t="n">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="F1102" t="n">
         <v>0</v>
       </c>
       <c r="G1102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1102" t="n">
         <v>1</v>
       </c>
       <c r="J1102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1102" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Csa Steaua Bucuresti </t>
+          <t xml:space="preserve">Suzhou Dongwu </t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CS Concordia Chiajna</t>
+          <t xml:space="preserve"> Guangxi Baoyun FC</t>
         </is>
       </c>
       <c r="C1103" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="D1103" t="n">
-        <v>3.1</v>
+        <v>1.75</v>
       </c>
       <c r="E1103" t="n">
-        <v>1</v>
+        <v>2.75</v>
       </c>
       <c r="F1103" t="n">
         <v>1</v>
@@ -45658,124 +45658,124 @@
         <v>1</v>
       </c>
       <c r="H1103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1103" t="n">
         <v>0</v>
       </c>
       <c r="K1103" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSC Dumbravita </t>
+          <t xml:space="preserve">Rizhao Yuqi </t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CSM Ceahlaul Piatra Neamt</t>
+          <t xml:space="preserve"> Shaanxi Union FC</t>
         </is>
       </c>
       <c r="C1104" t="n">
-        <v>1.88</v>
+        <v>7.7</v>
       </c>
       <c r="D1104" t="n">
-        <v>3.6</v>
+        <v>1.41</v>
       </c>
       <c r="E1104" t="n">
-        <v>1.72</v>
+        <v>6.29</v>
       </c>
       <c r="F1104" t="n">
         <v>0</v>
       </c>
       <c r="G1104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1104" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Unirea Dej </t>
+          <t xml:space="preserve">FA 2000 </t>
         </is>
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CSM Alexandria</t>
+          <t xml:space="preserve"> Thisted FC</t>
         </is>
       </c>
       <c r="C1105" t="n">
-        <v>1.26</v>
+        <v>1.88</v>
       </c>
       <c r="D1105" t="n">
-        <v>7.8</v>
+        <v>3.6</v>
       </c>
       <c r="E1105" t="n">
-        <v>6.54</v>
+        <v>1.72</v>
       </c>
       <c r="F1105" t="n">
         <v>1</v>
       </c>
       <c r="G1105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1105" t="n">
         <v>0</v>
       </c>
       <c r="I1105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1105" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Metaloglobus Bucuresti </t>
+          <t xml:space="preserve">Racing Santander </t>
         </is>
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACS Champions FC Arges</t>
+          <t xml:space="preserve"> CD Mirandes</t>
         </is>
       </c>
       <c r="C1106" t="n">
-        <v>2.85</v>
+        <v>1.86</v>
       </c>
       <c r="D1106" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="E1106" t="n">
-        <v>0.3500000000000001</v>
+        <v>2.14</v>
       </c>
       <c r="F1106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1106" t="n">
         <v>1</v>
@@ -45784,118 +45784,118 @@
         <v>0</v>
       </c>
       <c r="I1106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1106" t="n">
         <v>0</v>
       </c>
       <c r="K1106" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t xml:space="preserve">HNK Gorica U19 </t>
+          <t xml:space="preserve">Beijing Guoan </t>
         </is>
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NK Varazdin U19</t>
+          <t xml:space="preserve"> Meizhou Hakka</t>
         </is>
       </c>
       <c r="C1107" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="D1107" t="n">
-        <v>1.74</v>
+        <v>10.91</v>
       </c>
       <c r="E1107" t="n">
-        <v>1.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F1107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1107" t="n">
         <v>0</v>
       </c>
       <c r="K1107" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves FC </t>
+          <t xml:space="preserve">SonderjyskE </t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Queensland Lions FC</t>
+          <t xml:space="preserve"> Aalborg BK</t>
         </is>
       </c>
       <c r="C1108" t="n">
-        <v>7.1</v>
+        <v>1.92</v>
       </c>
       <c r="D1108" t="n">
-        <v>1.31</v>
+        <v>3.9</v>
       </c>
       <c r="E1108" t="n">
-        <v>5.789999999999999</v>
+        <v>1.98</v>
       </c>
       <c r="F1108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1108" t="n">
         <v>1</v>
       </c>
       <c r="H1108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1108" t="n">
         <v>0</v>
       </c>
       <c r="J1108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1108" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Jablonec B </t>
+          <t xml:space="preserve">Aarhus Fremad </t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Arsenal Ceska Lipa</t>
+          <t xml:space="preserve"> AB Gladsaxe</t>
         </is>
       </c>
       <c r="C1109" t="n">
-        <v>1.76</v>
+        <v>1.54</v>
       </c>
       <c r="D1109" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="E1109" t="n">
-        <v>1.74</v>
+        <v>3.66</v>
       </c>
       <c r="F1109" t="n">
         <v>1</v>
@@ -45907,124 +45907,124 @@
         <v>0</v>
       </c>
       <c r="I1109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1109" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Loko Vltavin </t>
+          <t xml:space="preserve">BK Fremad Amager </t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Slavia Karlovy Vary</t>
+          <t xml:space="preserve"> Brabrand IF</t>
         </is>
       </c>
       <c r="C1110" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="D1110" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="E1110" t="n">
-        <v>3.27</v>
+        <v>1.9</v>
       </c>
       <c r="F1110" t="n">
         <v>1</v>
       </c>
       <c r="G1110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1110" t="n">
         <v>0</v>
       </c>
       <c r="K1110" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Fotbal Trinec </t>
+          <t xml:space="preserve">Middelfart BK </t>
         </is>
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SK Hranice</t>
+          <t xml:space="preserve"> Nykoebing FC</t>
         </is>
       </c>
       <c r="C1111" t="n">
-        <v>1.16</v>
+        <v>1.42</v>
       </c>
       <c r="D1111" t="n">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="E1111" t="n">
-        <v>9.84</v>
+        <v>4.98</v>
       </c>
       <c r="F1111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1111" t="n">
         <v>1</v>
       </c>
       <c r="H1111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1111" t="n">
         <v>0</v>
       </c>
       <c r="K1111" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK Aritma Prague </t>
+          <t xml:space="preserve">FC Obolon Kiev </t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Rokycany</t>
+          <t xml:space="preserve"> FC Rukh Lviv</t>
         </is>
       </c>
       <c r="C1112" t="n">
-        <v>1.26</v>
+        <v>3.4</v>
       </c>
       <c r="D1112" t="n">
-        <v>7.3</v>
+        <v>2.15</v>
       </c>
       <c r="E1112" t="n">
-        <v>6.04</v>
+        <v>1.25</v>
       </c>
       <c r="F1112" t="n">
         <v>1</v>
       </c>
       <c r="G1112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1112" t="n">
         <v>0</v>
@@ -46037,32 +46037,32 @@
       </c>
       <c r="K1112" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t xml:space="preserve">ZCE Plzen </t>
+          <t xml:space="preserve">Scheveningen </t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Horovicko</t>
+          <t xml:space="preserve"> Almere City FC</t>
         </is>
       </c>
       <c r="C1113" t="n">
-        <v>1.24</v>
+        <v>2.15</v>
       </c>
       <c r="D1113" t="n">
-        <v>7.7</v>
+        <v>2.85</v>
       </c>
       <c r="E1113" t="n">
-        <v>6.46</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="F1113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1113" t="n">
         <v>0</v>
@@ -46071,39 +46071,39 @@
         <v>1</v>
       </c>
       <c r="I1113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t xml:space="preserve">N. Byskovice </t>
+          <t xml:space="preserve">FC Banik Ostrava </t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cesky Brod</t>
+          <t xml:space="preserve"> FK Mlada Boleslav</t>
         </is>
       </c>
       <c r="C1114" t="n">
-        <v>1.52</v>
+        <v>1.8</v>
       </c>
       <c r="D1114" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="E1114" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="F1114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1114" t="n">
         <v>0</v>
@@ -46115,83 +46115,83 @@
         <v>0</v>
       </c>
       <c r="J1114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1114" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK Kladno </t>
+          <t xml:space="preserve">FC Viktoria Plzen </t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Ostrov</t>
+          <t xml:space="preserve"> 1. FC Slovacko Uherske Hradiste</t>
         </is>
       </c>
       <c r="C1115" t="n">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="D1115" t="n">
-        <v>8.9</v>
+        <v>7.7</v>
       </c>
       <c r="E1115" t="n">
-        <v>7.73</v>
+        <v>6.31</v>
       </c>
       <c r="F1115" t="n">
         <v>1</v>
       </c>
       <c r="G1115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1115" t="n">
         <v>0</v>
       </c>
       <c r="I1115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1115" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t xml:space="preserve">SK Tatran Zdirec Nad Doubravou </t>
+          <t xml:space="preserve">Amsterdamsche FC </t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MSK Breclav</t>
+          <t xml:space="preserve"> ACV Assen</t>
         </is>
       </c>
       <c r="C1116" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="D1116" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="E1116" t="n">
-        <v>2.11</v>
+        <v>1.82</v>
       </c>
       <c r="F1116" t="n">
         <v>1</v>
       </c>
       <c r="G1116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1116" t="n">
         <v>0</v>
@@ -46201,79 +46201,79 @@
       </c>
       <c r="K1116" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Tokyo </t>
+          <t xml:space="preserve">Rijnsburgse Boys </t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kashiwa Reysol</t>
+          <t xml:space="preserve"> FC Lisse</t>
         </is>
       </c>
       <c r="C1117" t="n">
-        <v>2.77</v>
+        <v>1.75</v>
       </c>
       <c r="D1117" t="n">
-        <v>2.79</v>
+        <v>3.9</v>
       </c>
       <c r="E1117" t="n">
-        <v>0.02000000000000002</v>
+        <v>2.15</v>
       </c>
       <c r="F1117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1117" t="n">
         <v>1</v>
       </c>
       <c r="J1117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1117" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ipswich FC </t>
+          <t xml:space="preserve">Varbergs BoIS </t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Broadbeach United</t>
+          <t xml:space="preserve"> Orgryte IS</t>
         </is>
       </c>
       <c r="C1118" t="n">
-        <v>6.1</v>
+        <v>2.15</v>
       </c>
       <c r="D1118" t="n">
-        <v>1.35</v>
+        <v>3.1</v>
       </c>
       <c r="E1118" t="n">
-        <v>4.75</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="F1118" t="n">
         <v>1</v>
       </c>
       <c r="G1118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1118" t="n">
         <v>1</v>
@@ -46283,29 +46283,29 @@
       </c>
       <c r="K1118" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mitchelton FC </t>
+          <t xml:space="preserve">Atalanta BC </t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Southside Eagles</t>
+          <t xml:space="preserve"> Hellas Verona FC</t>
         </is>
       </c>
       <c r="C1119" t="n">
-        <v>5.5</v>
+        <v>1.71</v>
       </c>
       <c r="D1119" t="n">
-        <v>1.43</v>
+        <v>3.7</v>
       </c>
       <c r="E1119" t="n">
-        <v>4.07</v>
+        <v>1.99</v>
       </c>
       <c r="F1119" t="n">
         <v>1</v>
@@ -46324,76 +46324,76 @@
       </c>
       <c r="K1119" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Guangxi Hengchen FC </t>
+          <t xml:space="preserve">Adanaspor </t>
         </is>
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shanghai Port B</t>
+          <t xml:space="preserve"> Bandirmaspor</t>
         </is>
       </c>
       <c r="C1120" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D1120" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E1120" t="n">
         <v>1.93</v>
       </c>
-      <c r="D1120" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="E1120" t="n">
-        <v>1.82</v>
-      </c>
       <c r="F1120" t="n">
         <v>1</v>
       </c>
       <c r="G1120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1120" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves FC </t>
+          <t xml:space="preserve">Kocaelispor </t>
         </is>
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Queensland Lions FC</t>
+          <t xml:space="preserve"> Sakaryaspor</t>
         </is>
       </c>
       <c r="C1121" t="n">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="D1121" t="n">
-        <v>1.31</v>
+        <v>3.1</v>
       </c>
       <c r="E1121" t="n">
-        <v>5.69</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F1121" t="n">
         <v>1</v>
       </c>
       <c r="G1121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1121" t="n">
         <v>0</v>
@@ -46402,74 +46402,74 @@
         <v>0</v>
       </c>
       <c r="J1121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1121" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Western Sydney Wanderers Youth </t>
+          <t xml:space="preserve">Sanliurfaspor </t>
         </is>
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sydney Olympic FC</t>
+          <t xml:space="preserve"> Manisa Futbol Kulubu</t>
         </is>
       </c>
       <c r="C1122" t="n">
-        <v>1.95</v>
+        <v>1.51</v>
       </c>
       <c r="D1122" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="E1122" t="n">
-        <v>1.05</v>
+        <v>4.29</v>
       </c>
       <c r="F1122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1122" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cagliari Calcio </t>
+          <t xml:space="preserve">KS Gornik Zabrze </t>
         </is>
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genoa CFC</t>
+          <t xml:space="preserve"> FKS Stal Mielec</t>
         </is>
       </c>
       <c r="C1123" t="n">
-        <v>1.98</v>
+        <v>1.56</v>
       </c>
       <c r="D1123" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="E1123" t="n">
-        <v>1.12</v>
+        <v>3.94</v>
       </c>
       <c r="F1123" t="n">
         <v>1</v>
@@ -46478,86 +46478,86 @@
         <v>0</v>
       </c>
       <c r="H1123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1123" t="n">
         <v>0</v>
       </c>
       <c r="J1123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1123" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kingston City FC </t>
+          <t xml:space="preserve">Borussia M </t>
         </is>
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Caroline Springs George Cross FC</t>
+          <t xml:space="preserve"> Eintracht</t>
         </is>
       </c>
       <c r="C1124" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D1124" t="n">
-        <v>2.95</v>
+        <v>2.64</v>
       </c>
       <c r="E1124" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="F1124" t="n">
         <v>0</v>
       </c>
       <c r="G1124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1124" t="n">
         <v>1</v>
       </c>
       <c r="J1124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1124" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moreton City Excelsior FC 2 </t>
+          <t xml:space="preserve">Freiburg </t>
         </is>
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Logan Lightning</t>
+          <t xml:space="preserve"> 1. FC Heidenheim 1846</t>
         </is>
       </c>
       <c r="C1125" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="D1125" t="n">
-        <v>1.9</v>
+        <v>4.59</v>
       </c>
       <c r="E1125" t="n">
-        <v>1.3</v>
+        <v>2.81</v>
       </c>
       <c r="F1125" t="n">
         <v>1</v>
       </c>
       <c r="G1125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1125" t="n">
         <v>0</v>
@@ -46570,38 +46570,38 @@
       </c>
       <c r="K1125" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t xml:space="preserve">St George City FA </t>
+          <t xml:space="preserve">Leipzig </t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sutherland Sharks</t>
+          <t xml:space="preserve"> Werder</t>
         </is>
       </c>
       <c r="C1126" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="D1126" t="n">
-        <v>5.3</v>
+        <v>8.58</v>
       </c>
       <c r="E1126" t="n">
-        <v>3.84</v>
+        <v>7.25</v>
       </c>
       <c r="F1126" t="n">
         <v>1</v>
       </c>
       <c r="G1126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1126" t="n">
         <v>0</v>
@@ -46611,35 +46611,35 @@
       </c>
       <c r="K1126" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Paide Linnameeskond U21 </t>
+          <t xml:space="preserve">FK Spartak Moscow </t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JK Tabasalu</t>
+          <t xml:space="preserve"> FK Krasnodar</t>
         </is>
       </c>
       <c r="C1127" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="D1127" t="n">
-        <v>1.77</v>
+        <v>3</v>
       </c>
       <c r="E1127" t="n">
-        <v>1.53</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="F1127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1127" t="n">
         <v>0</v>
@@ -46652,76 +46652,76 @@
       </c>
       <c r="K1127" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yokohama Marinos </t>
+          <t xml:space="preserve">Everton </t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Al-Ain FC</t>
+          <t xml:space="preserve"> Sheffield Utd</t>
         </is>
       </c>
       <c r="C1128" t="n">
-        <v>1.93</v>
+        <v>1.45</v>
       </c>
       <c r="D1128" t="n">
-        <v>3.75</v>
+        <v>7.04</v>
       </c>
       <c r="E1128" t="n">
-        <v>1.82</v>
+        <v>5.59</v>
       </c>
       <c r="F1128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1128" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daegu FC </t>
+          <t xml:space="preserve">Newcastle </t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gwangju FC</t>
+          <t xml:space="preserve"> Brighton</t>
         </is>
       </c>
       <c r="C1129" t="n">
-        <v>2.95</v>
+        <v>1.6</v>
       </c>
       <c r="D1129" t="n">
-        <v>2.5</v>
+        <v>5.12</v>
       </c>
       <c r="E1129" t="n">
-        <v>0.4500000000000002</v>
+        <v>3.52</v>
       </c>
       <c r="F1129" t="n">
         <v>1</v>
       </c>
       <c r="G1129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1129" t="n">
         <v>0</v>
@@ -46730,33 +46730,33 @@
         <v>0</v>
       </c>
       <c r="J1129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1129" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gangwon FC </t>
+          <t xml:space="preserve">Tottenham </t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daejeon Citizen FC</t>
+          <t xml:space="preserve"> Burnley</t>
         </is>
       </c>
       <c r="C1130" t="n">
-        <v>2.15</v>
+        <v>1.37</v>
       </c>
       <c r="D1130" t="n">
-        <v>3.6</v>
+        <v>7.57</v>
       </c>
       <c r="E1130" t="n">
-        <v>1.45</v>
+        <v>6.2</v>
       </c>
       <c r="F1130" t="n">
         <v>1</v>
@@ -46771,121 +46771,121 @@
         <v>1</v>
       </c>
       <c r="J1130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1130" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Vorskla Poltava </t>
+          <t xml:space="preserve">West Ham </t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Minaj</t>
+          <t xml:space="preserve"> Luton Town</t>
         </is>
       </c>
       <c r="C1131" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="D1131" t="n">
-        <v>4.3</v>
+        <v>4.02</v>
       </c>
       <c r="E1131" t="n">
-        <v>2.55</v>
+        <v>2.169999999999999</v>
       </c>
       <c r="F1131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1131" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ansan Greeners </t>
+          <t xml:space="preserve">Hamilton Academical FC </t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Seoul E-Land FC</t>
+          <t xml:space="preserve"> Alloa Athletic FC</t>
         </is>
       </c>
       <c r="C1132" t="n">
-        <v>3.7</v>
+        <v>1.54</v>
       </c>
       <c r="D1132" t="n">
-        <v>1.85</v>
+        <v>4.75</v>
       </c>
       <c r="E1132" t="n">
-        <v>1.85</v>
+        <v>3.21</v>
       </c>
       <c r="F1132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1132" t="n">
         <v>0</v>
       </c>
       <c r="I1132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1132" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suwon Bluewings </t>
+          <t xml:space="preserve">Inverness Caledonian Thistle FC </t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cheonan City FC</t>
+          <t xml:space="preserve"> Montrose FC</t>
         </is>
       </c>
       <c r="C1133" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="D1133" t="n">
         <v>5.2</v>
       </c>
       <c r="E1133" t="n">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="F1133" t="n">
         <v>1</v>
       </c>
       <c r="G1133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1133" t="n">
         <v>0</v>
@@ -46894,74 +46894,74 @@
         <v>0</v>
       </c>
       <c r="J1133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1133" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hertha </t>
+          <t xml:space="preserve">Stirling Albion FC </t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1 FC Kaiserslautern</t>
+          <t xml:space="preserve"> Dumbarton FC</t>
         </is>
       </c>
       <c r="C1134" t="n">
-        <v>2.55</v>
+        <v>1.96</v>
       </c>
       <c r="D1134" t="n">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="E1134" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="F1134" t="n">
         <v>1</v>
       </c>
       <c r="G1134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1134" t="n">
         <v>0</v>
       </c>
       <c r="I1134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1134" t="n">
         <v>0</v>
       </c>
       <c r="K1134" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nuremberg </t>
+          <t xml:space="preserve">Aalesunds FK </t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SV 07 Elversberg</t>
+          <t xml:space="preserve"> Valerenga IF Oslo</t>
         </is>
       </c>
       <c r="C1135" t="n">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D1135" t="n">
-        <v>2.55</v>
+        <v>1.86</v>
       </c>
       <c r="E1135" t="n">
-        <v>0.05000000000000027</v>
+        <v>1.94</v>
       </c>
       <c r="F1135" t="n">
         <v>0</v>
@@ -46970,86 +46970,86 @@
         <v>1</v>
       </c>
       <c r="H1135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1135" t="n">
         <v>0</v>
       </c>
       <c r="J1135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1135" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Schalke </t>
+          <t xml:space="preserve">Asane Fotball </t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hansa Rostock</t>
+          <t xml:space="preserve"> IK Start</t>
         </is>
       </c>
       <c r="C1136" t="n">
-        <v>1.92</v>
+        <v>2.55</v>
       </c>
       <c r="D1136" t="n">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="E1136" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="F1136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1136" t="n">
         <v>1</v>
       </c>
       <c r="J1136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1136" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tianjin Jinmen Tiger </t>
+          <t xml:space="preserve">Moss FK </t>
         </is>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shanghai Shenhua</t>
+          <t xml:space="preserve"> Stabaek IF</t>
         </is>
       </c>
       <c r="C1137" t="n">
-        <v>6.67</v>
+        <v>3.2</v>
       </c>
       <c r="D1137" t="n">
-        <v>1.51</v>
+        <v>2.15</v>
       </c>
       <c r="E1137" t="n">
-        <v>5.16</v>
+        <v>1.05</v>
       </c>
       <c r="F1137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1137" t="n">
         <v>1</v>
@@ -47062,32 +47062,32 @@
       </c>
       <c r="K1137" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trelleborgs FF </t>
+          <t xml:space="preserve">Rochedale Rovers </t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Utsiktens BK</t>
+          <t xml:space="preserve"> Brisbane City FC</t>
         </is>
       </c>
       <c r="C1138" t="n">
-        <v>2.55</v>
+        <v>3.33</v>
       </c>
       <c r="D1138" t="n">
-        <v>2.75</v>
+        <v>1.86</v>
       </c>
       <c r="E1138" t="n">
-        <v>0.2000000000000002</v>
+        <v>1.47</v>
       </c>
       <c r="F1138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1138" t="n">
         <v>1</v>
@@ -47096,7 +47096,7 @@
         <v>0</v>
       </c>
       <c r="I1138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1138" t="n">
         <v>0</v>
@@ -47110,37 +47110,37 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ishoej IF </t>
+          <t xml:space="preserve">Pohang Steelers FC </t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vsk Aarhus</t>
+          <t xml:space="preserve"> Jeju United FC</t>
         </is>
       </c>
       <c r="C1139" t="n">
-        <v>2.25</v>
+        <v>1.72</v>
       </c>
       <c r="D1139" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="E1139" t="n">
-        <v>0.4500000000000002</v>
+        <v>3.08</v>
       </c>
       <c r="F1139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1139" t="inlineStr">
         <is>
@@ -47151,37 +47151,37 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vejgaard BK </t>
+          <t xml:space="preserve">Ulsan Hyundai FC </t>
         </is>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vanloese IF</t>
+          <t xml:space="preserve"> Gimcheon Sangmu FC</t>
         </is>
       </c>
       <c r="C1140" t="n">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="D1140" t="n">
-        <v>3.33</v>
+        <v>4.8</v>
       </c>
       <c r="E1140" t="n">
-        <v>1.39</v>
+        <v>3.09</v>
       </c>
       <c r="F1140" t="n">
         <v>1</v>
       </c>
       <c r="G1140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1140" t="inlineStr">
         <is>
@@ -47192,34 +47192,34 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t xml:space="preserve">SS Lazio </t>
+          <t xml:space="preserve">FC Anyang </t>
         </is>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Inter Milano</t>
+          <t xml:space="preserve"> Gimpo FC</t>
         </is>
       </c>
       <c r="C1141" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D1141" t="n">
         <v>4</v>
       </c>
-      <c r="D1141" t="n">
-        <v>1.7</v>
-      </c>
       <c r="E1141" t="n">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="F1141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1141" t="n">
         <v>0</v>
       </c>
       <c r="H1141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1141" t="n">
         <v>1</v>
@@ -47233,37 +47233,37 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Newtown AFC </t>
+          <t xml:space="preserve">Gyeongnam FC </t>
         </is>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pen-y-Bont FC</t>
+          <t xml:space="preserve"> Seongnam Ilhwa</t>
         </is>
       </c>
       <c r="C1142" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D1142" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="E1142" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="F1142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1142" t="n">
         <v>0</v>
       </c>
       <c r="J1142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1142" t="inlineStr">
         <is>
@@ -47274,28 +47274,28 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fulham </t>
+          <t xml:space="preserve">Wuxi Wugou </t>
         </is>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Man City</t>
+          <t xml:space="preserve"> Shanghai Jiading City Dev</t>
         </is>
       </c>
       <c r="C1143" t="n">
-        <v>12.55</v>
+        <v>2.1</v>
       </c>
       <c r="D1143" t="n">
-        <v>1.24</v>
+        <v>3.33</v>
       </c>
       <c r="E1143" t="n">
-        <v>11.31</v>
+        <v>1.23</v>
       </c>
       <c r="F1143" t="n">
         <v>1</v>
       </c>
       <c r="G1143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1143" t="n">
         <v>0</v>
@@ -47315,28 +47315,28 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Celtic </t>
+          <t xml:space="preserve">Shandong Taishan B </t>
         </is>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rangers</t>
+          <t xml:space="preserve"> Nantong Haimen Codion</t>
         </is>
       </c>
       <c r="C1144" t="n">
-        <v>1.81</v>
+        <v>2.45</v>
       </c>
       <c r="D1144" t="n">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="E1144" t="n">
-        <v>2.29</v>
+        <v>0.3499999999999996</v>
       </c>
       <c r="F1144" t="n">
         <v>1</v>
       </c>
       <c r="G1144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1144" t="n">
         <v>0</v>
@@ -47356,37 +47356,37 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nanjing City </t>
+          <t xml:space="preserve">Ganzhou Ruishi FC </t>
         </is>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+          <t xml:space="preserve"> Quanzhou Yaxin</t>
         </is>
       </c>
       <c r="C1145" t="n">
-        <v>3.7</v>
+        <v>1.39</v>
       </c>
       <c r="D1145" t="n">
-        <v>2</v>
+        <v>6.75</v>
       </c>
       <c r="E1145" t="n">
-        <v>1.7</v>
+        <v>5.36</v>
       </c>
       <c r="F1145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1145" t="inlineStr">
         <is>
@@ -47397,34 +47397,34 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Suzhou Dongwu </t>
+          <t xml:space="preserve">Capalaba Bulldogs </t>
         </is>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guangxi Baoyun FC</t>
+          <t xml:space="preserve"> SWQ Thunder FC</t>
         </is>
       </c>
       <c r="C1146" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D1146" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="E1146" t="n">
-        <v>2.75</v>
+        <v>2.64</v>
       </c>
       <c r="F1146" t="n">
         <v>1</v>
       </c>
       <c r="G1146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1146" t="n">
         <v>0</v>
@@ -47438,22 +47438,22 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rizhao Yuqi </t>
+          <t xml:space="preserve">Borussia Monchengladbach </t>
         </is>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shaanxi Union FC</t>
+          <t xml:space="preserve"> VfL Wolfsburg II</t>
         </is>
       </c>
       <c r="C1147" t="n">
-        <v>7.7</v>
+        <v>1.8</v>
       </c>
       <c r="D1147" t="n">
-        <v>1.41</v>
+        <v>3.4</v>
       </c>
       <c r="E1147" t="n">
-        <v>6.29</v>
+        <v>1.6</v>
       </c>
       <c r="F1147" t="n">
         <v>0</v>
@@ -47462,13 +47462,13 @@
         <v>1</v>
       </c>
       <c r="H1147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1147" t="n">
         <v>0</v>
       </c>
       <c r="J1147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
@@ -47479,28 +47479,28 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wuhan Three Towns </t>
+          <t xml:space="preserve">FC Carl Zeiss Jena </t>
         </is>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shandong Taishan</t>
+          <t xml:space="preserve"> Eintracht Frankfurt II</t>
         </is>
       </c>
       <c r="C1148" t="n">
-        <v>4.07</v>
+        <v>1.64</v>
       </c>
       <c r="D1148" t="n">
-        <v>2.02</v>
+        <v>4.1</v>
       </c>
       <c r="E1148" t="n">
-        <v>2.05</v>
+        <v>2.46</v>
       </c>
       <c r="F1148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1148" t="n">
         <v>0</v>
@@ -47520,22 +47520,22 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t xml:space="preserve">FA 2000 </t>
+          <t xml:space="preserve">SC Sand </t>
         </is>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Thisted FC</t>
+          <t xml:space="preserve"> FSV Gutersloh</t>
         </is>
       </c>
       <c r="C1149" t="n">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="D1149" t="n">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="E1149" t="n">
-        <v>1.72</v>
+        <v>0.8000000000000003</v>
       </c>
       <c r="F1149" t="n">
         <v>1</v>
@@ -47544,13 +47544,13 @@
         <v>0</v>
       </c>
       <c r="H1149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -47561,25 +47561,25 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mallorca </t>
+          <t xml:space="preserve">SG 99 Andernach </t>
         </is>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> UD Las Palmas</t>
+          <t xml:space="preserve"> 1. FFC Turbine Potsdam 71</t>
         </is>
       </c>
       <c r="C1150" t="n">
-        <v>1.72</v>
+        <v>2.3</v>
       </c>
       <c r="D1150" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="E1150" t="n">
-        <v>4.680000000000001</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F1150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1150" t="n">
         <v>1</v>
@@ -47588,7 +47588,7 @@
         <v>0</v>
       </c>
       <c r="I1150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1150" t="n">
         <v>1</v>
@@ -47602,22 +47602,22 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Racing Santander </t>
+          <t xml:space="preserve">SV Meppen </t>
         </is>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CD Mirandes</t>
+          <t xml:space="preserve"> SV 67 Weinberg</t>
         </is>
       </c>
       <c r="C1151" t="n">
-        <v>1.86</v>
+        <v>1.17</v>
       </c>
       <c r="D1151" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E1151" t="n">
-        <v>2.14</v>
+        <v>9.83</v>
       </c>
       <c r="F1151" t="n">
         <v>1</v>
@@ -47632,7 +47632,7 @@
         <v>0</v>
       </c>
       <c r="J1151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -47643,22 +47643,22 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beijing Guoan </t>
+          <t xml:space="preserve">AC Milan </t>
         </is>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Meizhou Hakka</t>
+          <t xml:space="preserve"> Frosinone Calcio</t>
         </is>
       </c>
       <c r="C1152" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="D1152" t="n">
-        <v>10.91</v>
+        <v>7.4</v>
       </c>
       <c r="E1152" t="n">
-        <v>9.609999999999999</v>
+        <v>6.130000000000001</v>
       </c>
       <c r="F1152" t="n">
         <v>1</v>
@@ -47670,10 +47670,10 @@
         <v>0</v>
       </c>
       <c r="I1152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -47684,37 +47684,37 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t xml:space="preserve">SonderjyskE </t>
+          <t xml:space="preserve">Getafe CF B </t>
         </is>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Aalborg BK</t>
+          <t xml:space="preserve"> Marbella FC</t>
         </is>
       </c>
       <c r="C1153" t="n">
-        <v>1.92</v>
+        <v>2.3</v>
       </c>
       <c r="D1153" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="E1153" t="n">
-        <v>1.98</v>
+        <v>0.8000000000000003</v>
       </c>
       <c r="F1153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -47725,22 +47725,22 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aarhus Fremad </t>
+          <t xml:space="preserve">Bucheon FC </t>
         </is>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AB Gladsaxe</t>
+          <t xml:space="preserve"> Jeonnam Dragons</t>
         </is>
       </c>
       <c r="C1154" t="n">
-        <v>1.54</v>
+        <v>2.2</v>
       </c>
       <c r="D1154" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="E1154" t="n">
-        <v>3.66</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F1154" t="n">
         <v>1</v>
@@ -47752,10 +47752,10 @@
         <v>0</v>
       </c>
       <c r="I1154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1154" t="inlineStr">
         <is>
@@ -47766,34 +47766,34 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t xml:space="preserve">BK Fremad Amager </t>
+          <t xml:space="preserve">CD Atletico Paso </t>
         </is>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brabrand IF</t>
+          <t xml:space="preserve"> Barakaldo CF</t>
         </is>
       </c>
       <c r="C1155" t="n">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="D1155" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="E1155" t="n">
-        <v>1.9</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="F1155" t="n">
         <v>1</v>
       </c>
       <c r="G1155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1155" t="n">
         <v>0</v>
       </c>
       <c r="I1155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1155" t="n">
         <v>0</v>
@@ -47807,25 +47807,25 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Middelfart BK </t>
+          <t xml:space="preserve">CD Manchego Ciudad Real </t>
         </is>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nykoebing FC</t>
+          <t xml:space="preserve"> Real Aviles CF</t>
         </is>
       </c>
       <c r="C1156" t="n">
-        <v>1.42</v>
+        <v>2.4</v>
       </c>
       <c r="D1156" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="E1156" t="n">
-        <v>4.98</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="F1156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1156" t="n">
         <v>1</v>
@@ -47837,7 +47837,7 @@
         <v>0</v>
       </c>
       <c r="J1156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
@@ -47848,22 +47848,22 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Skive IK </t>
+          <t xml:space="preserve">Deportivo Aragon </t>
         </is>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HIK Hellerup</t>
+          <t xml:space="preserve"> Pontevedra CF</t>
         </is>
       </c>
       <c r="C1157" t="n">
-        <v>1.92</v>
+        <v>3.5</v>
       </c>
       <c r="D1157" t="n">
-        <v>3.5</v>
+        <v>1.94</v>
       </c>
       <c r="E1157" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="F1157" t="n">
         <v>1</v>
@@ -47875,7 +47875,7 @@
         <v>0</v>
       </c>
       <c r="I1157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1157" t="n">
         <v>1</v>
@@ -47889,28 +47889,28 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t xml:space="preserve">SFB Oure FA </t>
+          <t xml:space="preserve">Rayo Cantabria </t>
         </is>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Holstebro BK</t>
+          <t xml:space="preserve"> San Sebastian Reyes</t>
         </is>
       </c>
       <c r="C1158" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D1158" t="n">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="E1158" t="n">
-        <v>0.9500000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F1158" t="n">
         <v>1</v>
       </c>
       <c r="G1158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1158" t="n">
         <v>0</v>
@@ -47930,34 +47930,34 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Obolon Kiev </t>
+          <t xml:space="preserve">SD Formentera </t>
         </is>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Rukh Lviv</t>
+          <t xml:space="preserve"> CD Izarra</t>
         </is>
       </c>
       <c r="C1159" t="n">
-        <v>3.4</v>
+        <v>1.99</v>
       </c>
       <c r="D1159" t="n">
-        <v>2.15</v>
+        <v>3.7</v>
       </c>
       <c r="E1159" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="F1159" t="n">
         <v>1</v>
       </c>
       <c r="G1159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1159" t="n">
         <v>0</v>
       </c>
       <c r="I1159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1159" t="n">
         <v>0</v>
@@ -47971,37 +47971,37 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Koninklijke HFC </t>
+          <t xml:space="preserve">Lazio </t>
         </is>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HHC Hardenberg</t>
+          <t xml:space="preserve"> Empoli</t>
         </is>
       </c>
       <c r="C1160" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="D1160" t="n">
-        <v>3</v>
+        <v>6.03</v>
       </c>
       <c r="E1160" t="n">
-        <v>0.9500000000000002</v>
+        <v>4.41</v>
       </c>
       <c r="F1160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1160" t="n">
         <v>0</v>
       </c>
       <c r="I1160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -48012,25 +48012,25 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scheveningen </t>
+          <t xml:space="preserve">Puszcza Niepolomice </t>
         </is>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Almere City FC</t>
+          <t xml:space="preserve"> KS Warta Poznan</t>
         </is>
       </c>
       <c r="C1161" t="n">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="D1161" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="E1161" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="F1161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1161" t="n">
         <v>0</v>
@@ -48039,7 +48039,7 @@
         <v>1</v>
       </c>
       <c r="I1161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1161" t="n">
         <v>1</v>
@@ -48053,34 +48053,34 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Banik Ostrava </t>
+          <t xml:space="preserve">FC Orenburg </t>
         </is>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Mlada Boleslav</t>
+          <t xml:space="preserve"> Lokomotiv Moscow</t>
         </is>
       </c>
       <c r="C1162" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="D1162" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="E1162" t="n">
-        <v>2.4</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="F1162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1162" t="n">
         <v>0</v>
@@ -48094,31 +48094,31 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Viktoria Plzen </t>
+          <t xml:space="preserve">BK Avarta </t>
         </is>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1. FC Slovacko Uherske Hradiste</t>
+          <t xml:space="preserve"> Naesby BK</t>
         </is>
       </c>
       <c r="C1163" t="n">
-        <v>1.39</v>
+        <v>2.45</v>
       </c>
       <c r="D1163" t="n">
-        <v>7.7</v>
+        <v>2.45</v>
       </c>
       <c r="E1163" t="n">
-        <v>6.31</v>
+        <v>0</v>
       </c>
       <c r="F1163" t="n">
         <v>1</v>
       </c>
       <c r="G1163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1163" t="n">
         <v>0</v>
@@ -48135,28 +48135,28 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t xml:space="preserve">AIK </t>
+          <t xml:space="preserve">Juventus Turin </t>
         </is>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IK Sirius</t>
+          <t xml:space="preserve"> AC Monza</t>
         </is>
       </c>
       <c r="C1164" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="D1164" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="E1164" t="n">
-        <v>2.73</v>
+        <v>1.81</v>
       </c>
       <c r="F1164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1164" t="n">
         <v>0</v>
@@ -48165,7 +48165,7 @@
         <v>0</v>
       </c>
       <c r="J1164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -48176,37 +48176,37 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Halmstads BK </t>
+          <t xml:space="preserve">US Lecce </t>
         </is>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mjallby AIF</t>
+          <t xml:space="preserve"> AS Roma</t>
         </is>
       </c>
       <c r="C1165" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="D1165" t="n">
-        <v>2.35</v>
+        <v>1.54</v>
       </c>
       <c r="E1165" t="n">
-        <v>0.75</v>
+        <v>2.96</v>
       </c>
       <c r="F1165" t="n">
         <v>1</v>
       </c>
       <c r="G1165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1165" t="n">
         <v>0</v>
       </c>
       <c r="J1165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -48217,22 +48217,22 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al Mokawloon Al Arab </t>
+          <t xml:space="preserve">Eintracht Braunschweig </t>
         </is>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Al Ittihad Al Sakandary</t>
+          <t xml:space="preserve"> SV Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="C1166" t="n">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="D1166" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="E1166" t="n">
-        <v>0.5500000000000003</v>
+        <v>1.45</v>
       </c>
       <c r="F1166" t="n">
         <v>1</v>
@@ -48247,7 +48247,7 @@
         <v>0</v>
       </c>
       <c r="J1166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -48258,22 +48258,22 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amsterdamsche FC </t>
+          <t xml:space="preserve">FC St. Pauli </t>
         </is>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACV Assen</t>
+          <t xml:space="preserve"> VfL 1899 Osnabruck</t>
         </is>
       </c>
       <c r="C1167" t="n">
-        <v>1.78</v>
+        <v>1.22</v>
       </c>
       <c r="D1167" t="n">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="E1167" t="n">
-        <v>1.82</v>
+        <v>10.78</v>
       </c>
       <c r="F1167" t="n">
         <v>1</v>
@@ -48282,7 +48282,7 @@
         <v>1</v>
       </c>
       <c r="H1167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1167" t="n">
         <v>0</v>
@@ -48299,37 +48299,37 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rijnsburgse Boys </t>
+          <t xml:space="preserve">Karlsruher SC </t>
         </is>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Lisse</t>
+          <t xml:space="preserve"> Hannover</t>
         </is>
       </c>
       <c r="C1168" t="n">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="D1168" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="E1168" t="n">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="F1168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -48340,22 +48340,22 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIF Sundsvall </t>
+          <t xml:space="preserve">Gent </t>
         </is>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Landskrona BoIS</t>
+          <t xml:space="preserve"> Oud-Heverlee Leuven</t>
         </is>
       </c>
       <c r="C1169" t="n">
-        <v>2.9</v>
+        <v>1.41</v>
       </c>
       <c r="D1169" t="n">
-        <v>2.45</v>
+        <v>6.4</v>
       </c>
       <c r="E1169" t="n">
-        <v>0.4499999999999997</v>
+        <v>4.99</v>
       </c>
       <c r="F1169" t="n">
         <v>1</v>
@@ -48381,31 +48381,31 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Varbergs BoIS </t>
+          <t xml:space="preserve">Guangzhou FC </t>
         </is>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Orgryte IS</t>
+          <t xml:space="preserve"> Qingdao Red Lions</t>
         </is>
       </c>
       <c r="C1170" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="D1170" t="n">
-        <v>3.1</v>
+        <v>3.33</v>
       </c>
       <c r="E1170" t="n">
-        <v>0.9500000000000002</v>
+        <v>1.23</v>
       </c>
       <c r="F1170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1170" t="n">
         <v>1</v>
@@ -48422,22 +48422,22 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atalanta BC </t>
+          <t xml:space="preserve">Yunnan Yukun </t>
         </is>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hellas Verona FC</t>
+          <t xml:space="preserve"> Yanbian Longding</t>
         </is>
       </c>
       <c r="C1171" t="n">
-        <v>1.71</v>
+        <v>1.28</v>
       </c>
       <c r="D1171" t="n">
-        <v>3.7</v>
+        <v>9.6</v>
       </c>
       <c r="E1171" t="n">
-        <v>1.99</v>
+        <v>8.32</v>
       </c>
       <c r="F1171" t="n">
         <v>1</v>
@@ -48449,10 +48449,10 @@
         <v>0</v>
       </c>
       <c r="I1171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -48463,28 +48463,28 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Benevento Calcio </t>
+          <t xml:space="preserve">Cangzhou Mighty Lions </t>
         </is>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cosenza Calcio</t>
+          <t xml:space="preserve"> Zhejiang Professional</t>
         </is>
       </c>
       <c r="C1172" t="n">
-        <v>1.56</v>
+        <v>4.97</v>
       </c>
       <c r="D1172" t="n">
-        <v>5</v>
+        <v>1.66</v>
       </c>
       <c r="E1172" t="n">
-        <v>3.44</v>
+        <v>3.31</v>
       </c>
       <c r="F1172" t="n">
         <v>1</v>
       </c>
       <c r="G1172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1172" t="n">
         <v>0</v>
@@ -48493,7 +48493,7 @@
         <v>0</v>
       </c>
       <c r="J1172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -48504,22 +48504,22 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Cerro </t>
+          <t xml:space="preserve">Cadiz CF </t>
         </is>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Danubio FC</t>
+          <t xml:space="preserve"> Getafe</t>
         </is>
       </c>
       <c r="C1173" t="n">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="D1173" t="n">
-        <v>2.65</v>
+        <v>3.71</v>
       </c>
       <c r="E1173" t="n">
-        <v>0.1499999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="F1173" t="n">
         <v>1</v>
@@ -48531,7 +48531,7 @@
         <v>0</v>
       </c>
       <c r="I1173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1173" t="n">
         <v>0</v>
@@ -48545,34 +48545,34 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adanaspor </t>
+          <t xml:space="preserve">SD Amorebieta </t>
         </is>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bandirmaspor</t>
+          <t xml:space="preserve"> Villarreal CF B</t>
         </is>
       </c>
       <c r="C1174" t="n">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="D1174" t="n">
-        <v>1.87</v>
+        <v>2.85</v>
       </c>
       <c r="E1174" t="n">
-        <v>1.93</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="F1174" t="n">
         <v>1</v>
       </c>
       <c r="G1174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1174" t="n">
         <v>0</v>
@@ -48586,22 +48586,22 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boluspor </t>
+          <t xml:space="preserve">FC Utrecht </t>
         </is>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Corum FK</t>
+          <t xml:space="preserve"> Sparta Rotterdam</t>
         </is>
       </c>
       <c r="C1175" t="n">
-        <v>2.95</v>
+        <v>1.7</v>
       </c>
       <c r="D1175" t="n">
-        <v>2.35</v>
+        <v>4.7</v>
       </c>
       <c r="E1175" t="n">
-        <v>0.6000000000000001</v>
+        <v>3</v>
       </c>
       <c r="F1175" t="n">
         <v>1</v>
@@ -48610,7 +48610,7 @@
         <v>0</v>
       </c>
       <c r="H1175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1175" t="n">
         <v>0</v>
@@ -48627,37 +48627,37 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Buyuksehir Belediye Erzurumspor </t>
+          <t xml:space="preserve">RKC Waalwijk </t>
         </is>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eyupspor</t>
+          <t xml:space="preserve"> PEC Zwolle</t>
         </is>
       </c>
       <c r="C1176" t="n">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="D1176" t="n">
-        <v>2.55</v>
+        <v>4.9</v>
       </c>
       <c r="E1176" t="n">
-        <v>0.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="F1176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -48668,34 +48668,34 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Goztepe Izmir </t>
+          <t xml:space="preserve">SC Heerenveen </t>
         </is>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BB Bodrumspor</t>
+          <t xml:space="preserve"> Vitesse Arnhem</t>
         </is>
       </c>
       <c r="C1177" t="n">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="D1177" t="n">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="E1177" t="n">
-        <v>1</v>
+        <v>3.77</v>
       </c>
       <c r="F1177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1177" t="n">
         <v>0</v>
@@ -48709,31 +48709,31 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kocaelispor </t>
+          <t xml:space="preserve">Atletico Tucuman </t>
         </is>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sakaryaspor</t>
+          <t xml:space="preserve"> Boca Juniors</t>
         </is>
       </c>
       <c r="C1178" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="D1178" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="E1178" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="F1178" t="n">
         <v>1</v>
       </c>
       <c r="G1178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1178" t="n">
         <v>0</v>
@@ -48750,31 +48750,31 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sanliurfaspor </t>
+          <t xml:space="preserve">Carabobo FC </t>
         </is>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Manisa Futbol Kulubu</t>
+          <t xml:space="preserve"> Academia Puerto Cabello</t>
         </is>
       </c>
       <c r="C1179" t="n">
-        <v>1.51</v>
+        <v>2.35</v>
       </c>
       <c r="D1179" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="E1179" t="n">
-        <v>4.29</v>
+        <v>0.75</v>
       </c>
       <c r="F1179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1179" t="n">
         <v>1</v>
       </c>
       <c r="H1179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1179" t="n">
         <v>0</v>
@@ -48791,37 +48791,37 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tuzlaspor </t>
+          <t xml:space="preserve">Norwich </t>
         </is>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Genclerbirligi SK</t>
+          <t xml:space="preserve"> Leeds United</t>
         </is>
       </c>
       <c r="C1180" t="n">
-        <v>2.65</v>
+        <v>3.22</v>
       </c>
       <c r="D1180" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="E1180" t="n">
-        <v>0.05000000000000027</v>
+        <v>0.9200000000000004</v>
       </c>
       <c r="F1180" t="n">
         <v>1</v>
       </c>
       <c r="G1180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -48832,34 +48832,34 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t xml:space="preserve">KS Gornik Zabrze </t>
+          <t xml:space="preserve">FC Orenburg </t>
         </is>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FKS Stal Mielec</t>
+          <t xml:space="preserve"> Lokomotiv Moscow</t>
         </is>
       </c>
       <c r="C1181" t="n">
-        <v>1.56</v>
+        <v>2.4</v>
       </c>
       <c r="D1181" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="E1181" t="n">
-        <v>3.94</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="F1181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1181" t="n">
         <v>0</v>
@@ -48873,37 +48873,37 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t xml:space="preserve">SCU Torreense </t>
+          <t xml:space="preserve">Eintracht Braunschweig </t>
         </is>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CD Feirense</t>
+          <t xml:space="preserve"> SV Wehen Wiesbaden</t>
         </is>
       </c>
       <c r="C1182" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="D1182" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="E1182" t="n">
-        <v>0.7000000000000002</v>
+        <v>1.1</v>
       </c>
       <c r="F1182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1182" t="n">
         <v>1</v>
       </c>
       <c r="H1182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1182" t="n">
         <v>0</v>
       </c>
       <c r="J1182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1182" t="inlineStr">
         <is>
@@ -48914,25 +48914,25 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Borussia M </t>
+          <t xml:space="preserve">FC St. Pauli </t>
         </is>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eintracht</t>
+          <t xml:space="preserve"> VfL 1899 Osnabruck</t>
         </is>
       </c>
       <c r="C1183" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="D1183" t="n">
-        <v>2.64</v>
+        <v>13</v>
       </c>
       <c r="E1183" t="n">
-        <v>0.04000000000000004</v>
+        <v>11.8</v>
       </c>
       <c r="F1183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1183" t="n">
         <v>1</v>
@@ -48941,7 +48941,7 @@
         <v>1</v>
       </c>
       <c r="I1183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1183" t="n">
         <v>0</v>
@@ -48955,31 +48955,31 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cologne </t>
+          <t xml:space="preserve">Karlsruher SC </t>
         </is>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Union Berlin</t>
+          <t xml:space="preserve"> Hannover</t>
         </is>
       </c>
       <c r="C1184" t="n">
-        <v>2.74</v>
+        <v>2.05</v>
       </c>
       <c r="D1184" t="n">
-        <v>2.69</v>
+        <v>3.2</v>
       </c>
       <c r="E1184" t="n">
-        <v>0.05000000000000027</v>
+        <v>1.15</v>
       </c>
       <c r="F1184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1184" t="n">
         <v>0</v>
       </c>
       <c r="H1184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1184" t="n">
         <v>0</v>
@@ -48996,22 +48996,22 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Freiburg </t>
+          <t xml:space="preserve">Gent </t>
         </is>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1. FC Heidenheim 1846</t>
+          <t xml:space="preserve"> Oud-Heverlee Leuven</t>
         </is>
       </c>
       <c r="C1185" t="n">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="D1185" t="n">
-        <v>4.59</v>
+        <v>6.3</v>
       </c>
       <c r="E1185" t="n">
-        <v>2.81</v>
+        <v>4.87</v>
       </c>
       <c r="F1185" t="n">
         <v>1</v>
@@ -49023,10 +49023,10 @@
         <v>0</v>
       </c>
       <c r="I1185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1185" t="inlineStr">
         <is>
@@ -49037,31 +49037,31 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leipzig </t>
+          <t xml:space="preserve">Cangzhou Mighty Lions </t>
         </is>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Werder</t>
+          <t xml:space="preserve"> Zhejiang Professional</t>
         </is>
       </c>
       <c r="C1186" t="n">
-        <v>1.33</v>
+        <v>4.85</v>
       </c>
       <c r="D1186" t="n">
-        <v>8.58</v>
+        <v>1.69</v>
       </c>
       <c r="E1186" t="n">
-        <v>7.25</v>
+        <v>3.16</v>
       </c>
       <c r="F1186" t="n">
         <v>1</v>
       </c>
       <c r="G1186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1186" t="n">
         <v>0</v>
@@ -49078,25 +49078,25 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Spartak Moscow </t>
+          <t xml:space="preserve">Cadiz CF </t>
         </is>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Krasnodar</t>
+          <t xml:space="preserve"> Getafe</t>
         </is>
       </c>
       <c r="C1187" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="D1187" t="n">
-        <v>3</v>
+        <v>3.69</v>
       </c>
       <c r="E1187" t="n">
-        <v>0.7000000000000002</v>
+        <v>1.43</v>
       </c>
       <c r="F1187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1187" t="n">
         <v>1</v>
@@ -49105,10 +49105,10 @@
         <v>0</v>
       </c>
       <c r="I1187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1187" t="inlineStr">
         <is>
@@ -49119,34 +49119,34 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jong Sparta Rotterdam </t>
+          <t xml:space="preserve">SD Amorebieta </t>
         </is>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> K.v.v. Quick Boys</t>
+          <t xml:space="preserve"> Villarreal CF B</t>
         </is>
       </c>
       <c r="C1188" t="n">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="D1188" t="n">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="E1188" t="n">
-        <v>1.8</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="F1188" t="n">
         <v>1</v>
       </c>
       <c r="G1188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1188" t="n">
         <v>0</v>
       </c>
       <c r="I1188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1188" t="n">
         <v>0</v>
@@ -49160,37 +49160,37 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t xml:space="preserve">VV Katwijk </t>
+          <t xml:space="preserve">Hacken Gothenburg </t>
         </is>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Excelsior Maassluis</t>
+          <t xml:space="preserve"> Kalmar FF</t>
         </is>
       </c>
       <c r="C1189" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="D1189" t="n">
-        <v>4.6</v>
+        <v>5.75</v>
       </c>
       <c r="E1189" t="n">
-        <v>3.029999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="F1189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1189" t="inlineStr">
         <is>
@@ -49201,34 +49201,34 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Obolon Kiev </t>
+          <t xml:space="preserve">IFK Norrkoping FK </t>
         </is>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Rukh Lviv</t>
+          <t xml:space="preserve"> Hammarby IF</t>
         </is>
       </c>
       <c r="C1190" t="n">
-        <v>3.33</v>
+        <v>2.65</v>
       </c>
       <c r="D1190" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="E1190" t="n">
-        <v>1.13</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="F1190" t="n">
         <v>1</v>
       </c>
       <c r="G1190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1190" t="n">
         <v>0</v>
       </c>
       <c r="I1190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1190" t="n">
         <v>0</v>
@@ -49242,22 +49242,22 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Koninklijke HFC </t>
+          <t xml:space="preserve">Sichuan Jiuniu </t>
         </is>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HHC Hardenberg</t>
+          <t xml:space="preserve"> Qingdao Zhongchuang Hengtai</t>
         </is>
       </c>
       <c r="C1191" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="D1191" t="n">
-        <v>3</v>
+        <v>3.43</v>
       </c>
       <c r="E1191" t="n">
-        <v>0.9500000000000002</v>
+        <v>1.28</v>
       </c>
       <c r="F1191" t="n">
         <v>0</v>
@@ -49266,7 +49266,7 @@
         <v>1</v>
       </c>
       <c r="H1191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1191" t="n">
         <v>0</v>
@@ -49283,25 +49283,25 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Scheveningen </t>
+          <t xml:space="preserve">FC Winterthur </t>
         </is>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Almere City FC</t>
+          <t xml:space="preserve"> FC Zurich</t>
         </is>
       </c>
       <c r="C1192" t="n">
-        <v>2.15</v>
+        <v>2.65</v>
       </c>
       <c r="D1192" t="n">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="E1192" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="F1192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1192" t="n">
         <v>0</v>
@@ -49310,7 +49310,7 @@
         <v>1</v>
       </c>
       <c r="I1192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1192" t="n">
         <v>1</v>
@@ -49324,22 +49324,22 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Banik Ostrava </t>
+          <t xml:space="preserve">Ajax </t>
         </is>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Mlada Boleslav</t>
+          <t xml:space="preserve"> Almere City FC</t>
         </is>
       </c>
       <c r="C1193" t="n">
-        <v>1.7</v>
+        <v>1.23</v>
       </c>
       <c r="D1193" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="E1193" t="n">
-        <v>2.8</v>
+        <v>9.77</v>
       </c>
       <c r="F1193" t="n">
         <v>1</v>
@@ -49348,10 +49348,10 @@
         <v>0</v>
       </c>
       <c r="H1193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1193" t="n">
         <v>0</v>
@@ -49365,34 +49365,34 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Viktoria Plzen </t>
+          <t xml:space="preserve">Excelsior Rotterdam </t>
         </is>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1. FC Slovacko Uherske Hradiste</t>
+          <t xml:space="preserve"> Heracles Almelo</t>
         </is>
       </c>
       <c r="C1194" t="n">
-        <v>1.38</v>
+        <v>1.91</v>
       </c>
       <c r="D1194" t="n">
-        <v>7.6</v>
+        <v>3.6</v>
       </c>
       <c r="E1194" t="n">
-        <v>6.22</v>
+        <v>1.69</v>
       </c>
       <c r="F1194" t="n">
         <v>1</v>
       </c>
       <c r="G1194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1194" t="n">
         <v>0</v>
       </c>
       <c r="I1194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1194" t="n">
         <v>1</v>
@@ -49406,22 +49406,22 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t xml:space="preserve">AIK </t>
+          <t xml:space="preserve">FC Twente Enschede </t>
         </is>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IK Sirius</t>
+          <t xml:space="preserve"> FC Volendam</t>
         </is>
       </c>
       <c r="C1195" t="n">
-        <v>1.78</v>
+        <v>1.07</v>
       </c>
       <c r="D1195" t="n">
-        <v>4.4</v>
+        <v>28</v>
       </c>
       <c r="E1195" t="n">
-        <v>2.62</v>
+        <v>26.93</v>
       </c>
       <c r="F1195" t="n">
         <v>1</v>
@@ -49436,7 +49436,7 @@
         <v>0</v>
       </c>
       <c r="J1195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1195" t="inlineStr">
         <is>
@@ -49447,22 +49447,22 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Halmstads BK </t>
+          <t xml:space="preserve">FC Utrecht </t>
         </is>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mjallby AIF</t>
+          <t xml:space="preserve"> Sparta Rotterdam</t>
         </is>
       </c>
       <c r="C1196" t="n">
-        <v>3.33</v>
+        <v>1.7</v>
       </c>
       <c r="D1196" t="n">
-        <v>2.15</v>
+        <v>4.7</v>
       </c>
       <c r="E1196" t="n">
-        <v>1.18</v>
+        <v>3</v>
       </c>
       <c r="F1196" t="n">
         <v>1</v>
@@ -49471,7 +49471,7 @@
         <v>0</v>
       </c>
       <c r="H1196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1196" t="n">
         <v>0</v>
@@ -49488,28 +49488,28 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Al Mokawloon Al Arab </t>
+          <t xml:space="preserve">Fortuna Sittard </t>
         </is>
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Al Ittihad Al Sakandary</t>
+          <t xml:space="preserve"> PSV Eindhoven</t>
         </is>
       </c>
       <c r="C1197" t="n">
-        <v>2.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D1197" t="n">
-        <v>3.1</v>
+        <v>1.28</v>
       </c>
       <c r="E1197" t="n">
-        <v>0.6000000000000001</v>
+        <v>8.020000000000001</v>
       </c>
       <c r="F1197" t="n">
         <v>1</v>
       </c>
       <c r="G1197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1197" t="n">
         <v>0</v>
@@ -49529,31 +49529,31 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amsterdamsche FC </t>
+          <t xml:space="preserve">Go Ahead Eagles </t>
         </is>
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ACV Assen</t>
+          <t xml:space="preserve"> Alkmaar</t>
         </is>
       </c>
       <c r="C1198" t="n">
-        <v>1.78</v>
+        <v>4.9</v>
       </c>
       <c r="D1198" t="n">
-        <v>3.6</v>
+        <v>1.67</v>
       </c>
       <c r="E1198" t="n">
-        <v>1.82</v>
+        <v>3.23</v>
       </c>
       <c r="F1198" t="n">
         <v>1</v>
       </c>
       <c r="G1198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1198" t="n">
         <v>0</v>
@@ -49570,22 +49570,22 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rijnsburgse Boys </t>
+          <t xml:space="preserve">NEC Nijmegen </t>
         </is>
       </c>
       <c r="B1199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Lisse</t>
+          <t xml:space="preserve"> Feyenoord Rotterdam</t>
         </is>
       </c>
       <c r="C1199" t="n">
-        <v>1.75</v>
+        <v>4.6</v>
       </c>
       <c r="D1199" t="n">
-        <v>3.9</v>
+        <v>1.67</v>
       </c>
       <c r="E1199" t="n">
-        <v>2.15</v>
+        <v>2.93</v>
       </c>
       <c r="F1199" t="n">
         <v>0</v>
@@ -49594,7 +49594,7 @@
         <v>1</v>
       </c>
       <c r="H1199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1199" t="n">
         <v>1</v>
@@ -49611,22 +49611,22 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t xml:space="preserve">GIF Sundsvall </t>
+          <t xml:space="preserve">RKC Waalwijk </t>
         </is>
       </c>
       <c r="B1200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Landskrona BoIS</t>
+          <t xml:space="preserve"> PEC Zwolle</t>
         </is>
       </c>
       <c r="C1200" t="n">
-        <v>2.95</v>
+        <v>1.58</v>
       </c>
       <c r="D1200" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="E1200" t="n">
-        <v>0.5500000000000003</v>
+        <v>3.32</v>
       </c>
       <c r="F1200" t="n">
         <v>0</v>
@@ -49652,34 +49652,34 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Varbergs BoIS </t>
+          <t xml:space="preserve">SC Heerenveen </t>
         </is>
       </c>
       <c r="B1201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Orgryte IS</t>
+          <t xml:space="preserve"> Vitesse Arnhem</t>
         </is>
       </c>
       <c r="C1201" t="n">
-        <v>2.05</v>
+        <v>1.56</v>
       </c>
       <c r="D1201" t="n">
-        <v>3.33</v>
+        <v>5</v>
       </c>
       <c r="E1201" t="n">
-        <v>1.28</v>
+        <v>3.44</v>
       </c>
       <c r="F1201" t="n">
         <v>1</v>
       </c>
       <c r="G1201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1201" t="n">
         <v>0</v>
@@ -49693,34 +49693,34 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atalanta BC </t>
+          <t xml:space="preserve">Kristiansund BK </t>
         </is>
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hellas Verona FC</t>
+          <t xml:space="preserve"> Bodoe/Glimt</t>
         </is>
       </c>
       <c r="C1202" t="n">
-        <v>1.71</v>
+        <v>7.2</v>
       </c>
       <c r="D1202" t="n">
-        <v>3.7</v>
+        <v>1.42</v>
       </c>
       <c r="E1202" t="n">
-        <v>1.99</v>
+        <v>5.78</v>
       </c>
       <c r="F1202" t="n">
         <v>1</v>
       </c>
       <c r="G1202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1202" t="n">
         <v>0</v>
@@ -49734,37 +49734,37 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t xml:space="preserve">UC Sampdoria </t>
+          <t xml:space="preserve">FC Chernomorets Odessa </t>
         </is>
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Empoli FC</t>
+          <t xml:space="preserve"> FC Metalist 1925 Kharkiv</t>
         </is>
       </c>
       <c r="C1203" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="D1203" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="E1203" t="n">
-        <v>0.25</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="F1203" t="n">
         <v>1</v>
       </c>
       <c r="G1203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1203" t="n">
         <v>0</v>
       </c>
       <c r="I1203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1203" t="inlineStr">
         <is>
@@ -49775,22 +49775,22 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Benevento Calcio </t>
+          <t xml:space="preserve">Genoa </t>
         </is>
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cosenza Calcio</t>
+          <t xml:space="preserve"> Sassuolo</t>
         </is>
       </c>
       <c r="C1204" t="n">
-        <v>1.56</v>
+        <v>2.38</v>
       </c>
       <c r="D1204" t="n">
-        <v>5</v>
+        <v>3.14</v>
       </c>
       <c r="E1204" t="n">
-        <v>3.44</v>
+        <v>0.7600000000000002</v>
       </c>
       <c r="F1204" t="n">
         <v>1</v>
@@ -49802,7 +49802,7 @@
         <v>0</v>
       </c>
       <c r="I1204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1204" t="n">
         <v>1</v>
@@ -49816,28 +49816,28 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Cremonese </t>
+          <t xml:space="preserve">Verona </t>
         </is>
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AS Cittadella</t>
+          <t xml:space="preserve"> FC Torino</t>
         </is>
       </c>
       <c r="C1205" t="n">
-        <v>1.12</v>
+        <v>3.23</v>
       </c>
       <c r="D1205" t="n">
-        <v>12</v>
+        <v>2.65</v>
       </c>
       <c r="E1205" t="n">
-        <v>10.88</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="F1205" t="n">
         <v>0</v>
       </c>
       <c r="G1205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1205" t="n">
         <v>0</v>
@@ -49857,28 +49857,28 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Borussia M </t>
+          <t xml:space="preserve">Bohemians Prague 1905 </t>
         </is>
       </c>
       <c r="B1206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eintracht</t>
+          <t xml:space="preserve"> FK Jablonec</t>
         </is>
       </c>
       <c r="C1206" t="n">
-        <v>2.64</v>
+        <v>2.3</v>
       </c>
       <c r="D1206" t="n">
-        <v>2.6</v>
+        <v>3.33</v>
       </c>
       <c r="E1206" t="n">
-        <v>0.04000000000000004</v>
+        <v>1.03</v>
       </c>
       <c r="F1206" t="n">
         <v>0</v>
       </c>
       <c r="G1206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1206" t="n">
         <v>1</v>
@@ -49898,34 +49898,34 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cologne </t>
+          <t xml:space="preserve">FC Slovan Liberec </t>
         </is>
       </c>
       <c r="B1207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Union Berlin</t>
+          <t xml:space="preserve"> FK Teplice</t>
         </is>
       </c>
       <c r="C1207" t="n">
-        <v>2.75</v>
+        <v>1.81</v>
       </c>
       <c r="D1207" t="n">
-        <v>2.72</v>
+        <v>4.2</v>
       </c>
       <c r="E1207" t="n">
-        <v>0.0299999999999998</v>
+        <v>2.39</v>
       </c>
       <c r="F1207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1207" t="n">
         <v>0</v>
       </c>
       <c r="H1207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1207" t="n">
         <v>1</v>
@@ -49939,22 +49939,22 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Freiburg </t>
+          <t xml:space="preserve">FK Pardubice </t>
         </is>
       </c>
       <c r="B1208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1. FC Heidenheim 1846</t>
+          <t xml:space="preserve"> SK Dynamo Ceske Budejovice</t>
         </is>
       </c>
       <c r="C1208" t="n">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="D1208" t="n">
-        <v>4.57</v>
+        <v>3.4</v>
       </c>
       <c r="E1208" t="n">
-        <v>2.79</v>
+        <v>1.3</v>
       </c>
       <c r="F1208" t="n">
         <v>1</v>
@@ -49969,7 +49969,7 @@
         <v>0</v>
       </c>
       <c r="J1208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1208" t="inlineStr">
         <is>
@@ -49980,37 +49980,37 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Leipzig </t>
+          <t xml:space="preserve">SK Sigma Olomouc </t>
         </is>
       </c>
       <c r="B1209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Werder</t>
+          <t xml:space="preserve"> FC Hradec Kralove</t>
         </is>
       </c>
       <c r="C1209" t="n">
-        <v>1.33</v>
+        <v>2.5</v>
       </c>
       <c r="D1209" t="n">
-        <v>8.41</v>
+        <v>2.75</v>
       </c>
       <c r="E1209" t="n">
-        <v>7.08</v>
+        <v>0.25</v>
       </c>
       <c r="F1209" t="n">
         <v>1</v>
       </c>
       <c r="G1209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1209" t="n">
         <v>0</v>
       </c>
       <c r="J1209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1209" t="inlineStr">
         <is>
@@ -50021,37 +50021,37 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t xml:space="preserve">FK Spartak Moscow </t>
+          <t xml:space="preserve">West Bromwich </t>
         </is>
       </c>
       <c r="B1210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Krasnodar</t>
+          <t xml:space="preserve"> Southampton</t>
         </is>
       </c>
       <c r="C1210" t="n">
-        <v>2.3</v>
+        <v>2.99</v>
       </c>
       <c r="D1210" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E1210" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.4900000000000002</v>
       </c>
       <c r="F1210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1210" t="n">
         <v>1</v>
       </c>
       <c r="H1210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1210" t="n">
         <v>0</v>
       </c>
       <c r="J1210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1210" t="inlineStr">
         <is>
@@ -50062,25 +50062,25 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jong Sparta Rotterdam </t>
+          <t xml:space="preserve">SV Darmstadt 98 </t>
         </is>
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> K.v.v. Quick Boys</t>
+          <t xml:space="preserve"> Hoffenheim</t>
         </is>
       </c>
       <c r="C1211" t="n">
-        <v>3.6</v>
+        <v>4.96</v>
       </c>
       <c r="D1211" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="E1211" t="n">
-        <v>1.8</v>
+        <v>3.32</v>
       </c>
       <c r="F1211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1211" t="n">
         <v>1</v>
@@ -50092,7 +50092,7 @@
         <v>0</v>
       </c>
       <c r="J1211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
@@ -50103,25 +50103,25 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t xml:space="preserve">VV Katwijk </t>
+          <t xml:space="preserve">FC Fakel Voronezh </t>
         </is>
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Excelsior Maassluis</t>
+          <t xml:space="preserve"> FK Ural Yekaterinburg</t>
         </is>
       </c>
       <c r="C1212" t="n">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="D1212" t="n">
-        <v>4.6</v>
+        <v>2.85</v>
       </c>
       <c r="E1212" t="n">
-        <v>3.029999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="F1212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1212" t="n">
         <v>0</v>
@@ -50130,7 +50130,7 @@
         <v>0</v>
       </c>
       <c r="I1212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1212" t="n">
         <v>1</v>
@@ -50144,22 +50144,22 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bournemouth </t>
+          <t xml:space="preserve">Hibernian FC </t>
         </is>
       </c>
       <c r="B1213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brentford FC</t>
+          <t xml:space="preserve"> Aberdeen FC</t>
         </is>
       </c>
       <c r="C1213" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="D1213" t="n">
-        <v>3.54</v>
+        <v>3.6</v>
       </c>
       <c r="E1213" t="n">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="F1213" t="n">
         <v>1</v>
@@ -50168,13 +50168,13 @@
         <v>0</v>
       </c>
       <c r="H1213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
@@ -50185,37 +50185,37 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Everton </t>
+          <t xml:space="preserve">KMSK Deinze </t>
         </is>
       </c>
       <c r="B1214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sheffield Utd</t>
+          <t xml:space="preserve"> Lommel SK</t>
         </is>
       </c>
       <c r="C1214" t="n">
-        <v>1.45</v>
+        <v>2.65</v>
       </c>
       <c r="D1214" t="n">
-        <v>7.04</v>
+        <v>2.6</v>
       </c>
       <c r="E1214" t="n">
-        <v>5.59</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="F1214" t="n">
         <v>1</v>
       </c>
       <c r="G1214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1214" t="n">
         <v>0</v>
       </c>
       <c r="J1214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -50226,22 +50226,22 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Newcastle </t>
+          <t xml:space="preserve">St. Truidense VV </t>
         </is>
       </c>
       <c r="B1215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brighton</t>
+          <t xml:space="preserve"> Yellow-Red KV Mechelen</t>
         </is>
       </c>
       <c r="C1215" t="n">
-        <v>1.6</v>
+        <v>2.35</v>
       </c>
       <c r="D1215" t="n">
-        <v>5.12</v>
+        <v>2.8</v>
       </c>
       <c r="E1215" t="n">
-        <v>3.52</v>
+        <v>0.4499999999999997</v>
       </c>
       <c r="F1215" t="n">
         <v>1</v>
@@ -50250,7 +50250,7 @@
         <v>0</v>
       </c>
       <c r="H1215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1215" t="n">
         <v>0</v>
@@ -50267,37 +50267,37 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tottenham </t>
+          <t xml:space="preserve">Atletico Madrid </t>
         </is>
       </c>
       <c r="B1216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Burnley</t>
+          <t xml:space="preserve"> Celta</t>
         </is>
       </c>
       <c r="C1216" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="D1216" t="n">
-        <v>7.57</v>
+        <v>7.55</v>
       </c>
       <c r="E1216" t="n">
-        <v>6.2</v>
+        <v>6.12</v>
       </c>
       <c r="F1216" t="n">
         <v>1</v>
       </c>
       <c r="G1216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
@@ -50308,22 +50308,22 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t xml:space="preserve">West Ham </t>
+          <t xml:space="preserve">FC St. Gallen 1879 </t>
         </is>
       </c>
       <c r="B1217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Luton Town</t>
+          <t xml:space="preserve"> Servette Geneva</t>
         </is>
       </c>
       <c r="C1217" t="n">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="D1217" t="n">
-        <v>4.02</v>
+        <v>2.65</v>
       </c>
       <c r="E1217" t="n">
-        <v>2.169999999999999</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="F1217" t="n">
         <v>1</v>
@@ -50332,13 +50332,13 @@
         <v>0</v>
       </c>
       <c r="H1217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1217" t="n">
         <v>1</v>
       </c>
       <c r="J1217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1217" t="inlineStr">
         <is>
@@ -50349,28 +50349,28 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Wolves </t>
+          <t xml:space="preserve">Hamarkameratene </t>
         </is>
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Crystal Palace</t>
+          <t xml:space="preserve"> FK Haugesund</t>
         </is>
       </c>
       <c r="C1218" t="n">
-        <v>3.2</v>
+        <v>1.93</v>
       </c>
       <c r="D1218" t="n">
-        <v>2.33</v>
+        <v>3.9</v>
       </c>
       <c r="E1218" t="n">
-        <v>0.8700000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="F1218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1218" t="n">
         <v>1</v>
@@ -50379,7 +50379,7 @@
         <v>0</v>
       </c>
       <c r="J1218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1218" t="inlineStr">
         <is>
@@ -50390,22 +50390,22 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Heart of Midlothian FC </t>
+          <t xml:space="preserve">KFUM Oslo </t>
         </is>
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Dundee</t>
+          <t xml:space="preserve"> Fredrikstad FK</t>
         </is>
       </c>
       <c r="C1219" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="D1219" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="E1219" t="n">
-        <v>3.15</v>
+        <v>0.05000000000000027</v>
       </c>
       <c r="F1219" t="n">
         <v>0</v>
@@ -50414,7 +50414,7 @@
         <v>1</v>
       </c>
       <c r="H1219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1219" t="n">
         <v>0</v>
@@ -50431,37 +50431,37 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Livingston FC </t>
+          <t xml:space="preserve">Sandefjord Fotball </t>
         </is>
       </c>
       <c r="B1220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> St Johnstone FC</t>
+          <t xml:space="preserve"> Sarpsborg 08</t>
         </is>
       </c>
       <c r="C1220" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="D1220" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="E1220" t="n">
-        <v>0.3999999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F1220" t="n">
         <v>1</v>
       </c>
       <c r="G1220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1220" t="n">
         <v>0</v>
       </c>
       <c r="I1220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1220" t="inlineStr">
         <is>
@@ -50472,37 +50472,37 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ross County FC </t>
+          <t xml:space="preserve">Stroemsgodset IF </t>
         </is>
       </c>
       <c r="B1221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Motherwell FC</t>
+          <t xml:space="preserve"> Viking FK</t>
         </is>
       </c>
       <c r="C1221" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="D1221" t="n">
         <v>3</v>
       </c>
       <c r="E1221" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.75</v>
       </c>
       <c r="F1221" t="n">
         <v>1</v>
       </c>
       <c r="G1221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1221" t="n">
         <v>0</v>
       </c>
       <c r="I1221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1221" t="inlineStr">
         <is>
@@ -50513,34 +50513,34 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t xml:space="preserve">St Mirren FC </t>
+          <t xml:space="preserve">Man Utd </t>
         </is>
       </c>
       <c r="B1222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kilmarnock FC</t>
+          <t xml:space="preserve"> Arsenal</t>
         </is>
       </c>
       <c r="C1222" t="n">
-        <v>2.65</v>
+        <v>6.87</v>
       </c>
       <c r="D1222" t="n">
-        <v>2.9</v>
+        <v>1.43</v>
       </c>
       <c r="E1222" t="n">
-        <v>0.25</v>
+        <v>5.44</v>
       </c>
       <c r="F1222" t="n">
         <v>1</v>
       </c>
       <c r="G1222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1222" t="n">
         <v>0</v>
       </c>
       <c r="I1222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1222" t="n">
         <v>0</v>
@@ -50554,37 +50554,37 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hamilton Academical FC </t>
+          <t xml:space="preserve">Bayern </t>
         </is>
       </c>
       <c r="B1223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alloa Athletic FC</t>
+          <t xml:space="preserve"> Wolfsburg</t>
         </is>
       </c>
       <c r="C1223" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="D1223" t="n">
-        <v>4.75</v>
+        <v>6.61</v>
       </c>
       <c r="E1223" t="n">
-        <v>3.21</v>
+        <v>5.17</v>
       </c>
       <c r="F1223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1223" t="n">
         <v>0</v>
       </c>
       <c r="I1223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1223" t="inlineStr">
         <is>
@@ -50595,22 +50595,22 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inverness Caledonian Thistle FC </t>
+          <t xml:space="preserve">Juventus </t>
         </is>
       </c>
       <c r="B1224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Montrose FC</t>
+          <t xml:space="preserve"> US Salernitana</t>
         </is>
       </c>
       <c r="C1224" t="n">
-        <v>1.54</v>
+        <v>1.16</v>
       </c>
       <c r="D1224" t="n">
-        <v>5.2</v>
+        <v>18.45</v>
       </c>
       <c r="E1224" t="n">
-        <v>3.66</v>
+        <v>17.29</v>
       </c>
       <c r="F1224" t="n">
         <v>1</v>
@@ -50622,7 +50622,7 @@
         <v>0</v>
       </c>
       <c r="I1224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1224" t="n">
         <v>1</v>
@@ -50636,22 +50636,22 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Peterhead FC </t>
+          <t xml:space="preserve">Adana Demirspor </t>
         </is>
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Spartans FC</t>
+          <t xml:space="preserve"> Gaziantep FK</t>
         </is>
       </c>
       <c r="C1225" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="D1225" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E1225" t="n">
-        <v>1.1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="F1225" t="n">
         <v>1</v>
@@ -50663,7 +50663,7 @@
         <v>0</v>
       </c>
       <c r="I1225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1225" t="n">
         <v>1</v>
@@ -50677,31 +50677,31 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stirling Albion FC </t>
+          <t xml:space="preserve">Alanyaspor </t>
         </is>
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dumbarton FC</t>
+          <t xml:space="preserve"> Besiktas Istanbul</t>
         </is>
       </c>
       <c r="C1226" t="n">
-        <v>1.96</v>
+        <v>2.6</v>
       </c>
       <c r="D1226" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="E1226" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="F1226" t="n">
         <v>1</v>
       </c>
       <c r="G1226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1226" t="n">
         <v>1</v>
@@ -50718,37 +50718,37 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Calcio Caldiero Terme </t>
+          <t xml:space="preserve">Fatih Karagumruk Istanbul </t>
         </is>
       </c>
       <c r="B1227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Union Clodiense Chioggia SSD</t>
+          <t xml:space="preserve"> Galatasaray Istanbul</t>
         </is>
       </c>
       <c r="C1227" t="n">
-        <v>2.3</v>
+        <v>6</v>
       </c>
       <c r="D1227" t="n">
-        <v>2.8</v>
+        <v>1.45</v>
       </c>
       <c r="E1227" t="n">
-        <v>0.5</v>
+        <v>4.55</v>
       </c>
       <c r="F1227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1227" t="inlineStr">
         <is>
@@ -50759,28 +50759,28 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aalesunds FK </t>
+          <t xml:space="preserve">Atalanta </t>
         </is>
       </c>
       <c r="B1228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valerenga IF Oslo</t>
+          <t xml:space="preserve"> Roma</t>
         </is>
       </c>
       <c r="C1228" t="n">
-        <v>3.8</v>
+        <v>1.98</v>
       </c>
       <c r="D1228" t="n">
-        <v>1.86</v>
+        <v>3.88</v>
       </c>
       <c r="E1228" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="F1228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1228" t="n">
         <v>0</v>
@@ -50789,7 +50789,7 @@
         <v>0</v>
       </c>
       <c r="J1228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1228" t="inlineStr">
         <is>
@@ -50800,22 +50800,22 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asane Fotball </t>
+          <t xml:space="preserve">Miami FC </t>
         </is>
       </c>
       <c r="B1229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> IK Start</t>
+          <t xml:space="preserve"> Indy Eleven</t>
         </is>
       </c>
       <c r="C1229" t="n">
-        <v>2.55</v>
+        <v>3.33</v>
       </c>
       <c r="D1229" t="n">
-        <v>2.55</v>
+        <v>1.99</v>
       </c>
       <c r="E1229" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F1229" t="n">
         <v>0</v>
@@ -50827,10 +50827,10 @@
         <v>1</v>
       </c>
       <c r="I1229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1229" t="inlineStr">
         <is>
@@ -50841,37 +50841,37 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bryne FK </t>
+          <t xml:space="preserve">Saint Louis City SC 2 </t>
         </is>
       </c>
       <c r="B1230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mjondalen IF</t>
+          <t xml:space="preserve"> Austin FC II</t>
         </is>
       </c>
       <c r="C1230" t="n">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="D1230" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="E1230" t="n">
-        <v>4.16</v>
+        <v>2.1</v>
       </c>
       <c r="F1230" t="n">
         <v>1</v>
       </c>
       <c r="G1230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1230" t="inlineStr">
         <is>
@@ -50882,37 +50882,37 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kongsvinger IL Fotball </t>
+          <t xml:space="preserve">Leones Negros UDEG </t>
         </is>
       </c>
       <c r="B1231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Raufoss IL</t>
+          <t xml:space="preserve"> Atlante FC</t>
         </is>
       </c>
       <c r="C1231" t="n">
-        <v>1.64</v>
+        <v>2.5</v>
       </c>
       <c r="D1231" t="n">
-        <v>4.9</v>
+        <v>2.65</v>
       </c>
       <c r="E1231" t="n">
-        <v>3.260000000000001</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="F1231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K1231" t="inlineStr">
         <is>
@@ -50923,22 +50923,22 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lyn 1896 FK </t>
+          <t xml:space="preserve">Barcelona SC </t>
         </is>
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Levanger FK</t>
+          <t xml:space="preserve"> SD Aucas</t>
         </is>
       </c>
       <c r="C1232" t="n">
-        <v>2.3</v>
+        <v>1.74</v>
       </c>
       <c r="D1232" t="n">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="E1232" t="n">
-        <v>0.6000000000000001</v>
+        <v>2.66</v>
       </c>
       <c r="F1232" t="n">
         <v>0</v>
@@ -50964,34 +50964,34 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Moss FK </t>
+          <t xml:space="preserve">Montevideo City Torque </t>
         </is>
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stabaek IF</t>
+          <t xml:space="preserve"> Uruguay Montevideo FC</t>
         </is>
       </c>
       <c r="C1233" t="n">
-        <v>3.2</v>
+        <v>1.77</v>
       </c>
       <c r="D1233" t="n">
-        <v>2.15</v>
+        <v>4.1</v>
       </c>
       <c r="E1233" t="n">
-        <v>1.05</v>
+        <v>2.33</v>
       </c>
       <c r="F1233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1233" t="n">
         <v>0</v>
       </c>
       <c r="H1233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1233" t="n">
         <v>1</v>
@@ -51005,39 +51005,900 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ranheim </t>
+          <t xml:space="preserve">Vancouver Langley FC </t>
         </is>
       </c>
       <c r="B1234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Egersunds IK</t>
+          <t xml:space="preserve"> Atletico Ottawa</t>
         </is>
       </c>
       <c r="C1234" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="D1234" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1234" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atletico Tucuman </t>
+        </is>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Boca Juniors</t>
+        </is>
+      </c>
+      <c r="C1235" t="n">
         <v>3</v>
       </c>
-      <c r="E1234" t="n">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="F1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1234" t="n">
-        <v>0</v>
-      </c>
-      <c r="K1234" t="inlineStr">
+      <c r="D1235" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1235" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carabobo FC </t>
+        </is>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Academia Puerto Cabello</t>
+        </is>
+      </c>
+      <c r="C1236" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1236" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Universitario de Deportes </t>
+        </is>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sporting Cristal</t>
+        </is>
+      </c>
+      <c r="C1237" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1237" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Real Santa Cruz </t>
+        </is>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jorge Wilstermann</t>
+        </is>
+      </c>
+      <c r="C1238" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1238" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportes Iquique </t>
+        </is>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nublense</t>
+        </is>
+      </c>
+      <c r="C1239" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1239" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Tigre </t>
+        </is>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Estudiantes de La Plata</t>
+        </is>
+      </c>
+      <c r="C1240" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1240" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportivo Riestra </t>
+        </is>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C1241" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1241" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASC Otelul Galati </t>
+        </is>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Botosani</t>
+        </is>
+      </c>
+      <c r="C1242" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1242" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSM Politehnica Iasi </t>
+        </is>
+      </c>
+      <c r="B1243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Petrolul Ploiesti</t>
+        </is>
+      </c>
+      <c r="C1243" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1243" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Dinamo Bucuresti 1948 </t>
+        </is>
+      </c>
+      <c r="B1244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Uta Arad</t>
+        </is>
+      </c>
+      <c r="C1244" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1244" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC U Craiova 1948 </t>
+        </is>
+      </c>
+      <c r="B1245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFC Hermannstadt</t>
+        </is>
+      </c>
+      <c r="C1245" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1245" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Voluntari </t>
+        </is>
+      </c>
+      <c r="B1246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="C1246" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1246" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Acassuso </t>
+        </is>
+      </c>
+      <c r="B1247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Atletico Los Andes</t>
+        </is>
+      </c>
+      <c r="C1247" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1247" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSD Flandria </t>
+        </is>
+      </c>
+      <c r="B1248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Comunicaciones</t>
+        </is>
+      </c>
+      <c r="C1248" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1248" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSD San Martin </t>
+        </is>
+      </c>
+      <c r="B1249" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ferrocarril Midland</t>
+        </is>
+      </c>
+      <c r="C1249" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1249" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportivo Merlo </t>
+        </is>
+      </c>
+      <c r="B1250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Villa Dalmine</t>
+        </is>
+      </c>
+      <c r="C1250" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1250" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Alvarado </t>
+        </is>
+      </c>
+      <c r="B1251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Talleres de Remedios</t>
+        </is>
+      </c>
+      <c r="C1251" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1251" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Maipu </t>
+        </is>
+      </c>
+      <c r="B1252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="C1252" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1252" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CDM Leandro N. Alem </t>
+        </is>
+      </c>
+      <c r="B1253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CS Barracas</t>
+        </is>
+      </c>
+      <c r="C1253" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1253" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Defensores de Cambaceres </t>
+        </is>
+      </c>
+      <c r="B1254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Real Pilar FC</t>
+        </is>
+      </c>
+      <c r="C1254" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1254" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportivo Espanol </t>
+        </is>
+      </c>
+      <c r="B1255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Justo Jose de Urquiza</t>
+        </is>
+      </c>
+      <c r="C1255" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1255" t="inlineStr">
         <is>
           <t>pending</t>
         </is>
